--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/0/Output_12_20.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/0/Output_12_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1167331.98312406</v>
+        <v>-1167556.148103481</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>244259.5951960791</v>
+        <v>244259.595196078</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.439019878190955</v>
+        <v>7.439019878191345</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.439019878190955</v>
+        <v>7.439019878191345</v>
       </c>
       <c r="F11" t="n">
-        <v>7.439019878190955</v>
+        <v>7.439019878191345</v>
       </c>
       <c r="G11" t="n">
-        <v>6.552288708710634</v>
+        <v>7.439019878191345</v>
       </c>
       <c r="H11" t="n">
-        <v>7.439019878190955</v>
+        <v>4.906014657168317</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>7.439019878190955</v>
+        <v>7.439019878191345</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1406,10 +1406,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.754337149123721</v>
+        <v>0.7543371491238418</v>
       </c>
       <c r="P11" t="n">
-        <v>7.439019878190955</v>
+        <v>7.439019878191345</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.350201060390702</v>
+        <v>1.350201060390532</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.792745826648311</v>
+        <v>7.439019878191345</v>
       </c>
     </row>
     <row r="12">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.012421037436187</v>
+        <v>8.012421037436354</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>5.535081752804457</v>
+        <v>5.535081752804816</v>
       </c>
       <c r="F14" t="n">
-        <v>8.012421037436187</v>
+        <v>8.012421037436354</v>
       </c>
       <c r="G14" t="n">
-        <v>8.012421037436187</v>
+        <v>8.012421037436354</v>
       </c>
       <c r="H14" t="n">
-        <v>8.012421037436187</v>
+        <v>8.012421037436354</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>8.012421037436187</v>
+        <v>8.012421037436354</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6075004284123793</v>
+        <v>0.6075004284124361</v>
       </c>
       <c r="P14" t="n">
         <v>7.29218315747994</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.203364339679354</v>
+        <v>1.203364339679126</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.012421037436187</v>
+        <v>8.012421037436354</v>
       </c>
     </row>
     <row r="15">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16.18083491622565</v>
+        <v>16.18083491622559</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>10.24992944722709</v>
+        <v>10.24992944722703</v>
       </c>
       <c r="F17" t="n">
-        <v>16.18083491622565</v>
+        <v>16.18083491622559</v>
       </c>
       <c r="G17" t="n">
-        <v>16.18083491622565</v>
+        <v>16.18083491622559</v>
       </c>
       <c r="H17" t="n">
-        <v>16.18083491622565</v>
+        <v>16.18083491622559</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>10.18915825909235</v>
+        <v>10.18915825909261</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>5.568659629367744</v>
+        <v>5.568659629367971</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>16.18083491622565</v>
+        <v>16.18083491622559</v>
       </c>
     </row>
     <row r="18">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>15.86801373781987</v>
+        <v>15.86801373781952</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>9.937108268821305</v>
+        <v>9.937108268820964</v>
       </c>
       <c r="F20" t="n">
-        <v>18.57974169281238</v>
+        <v>18.57974169281315</v>
       </c>
       <c r="G20" t="n">
-        <v>18.57974169281238</v>
+        <v>18.57974169281315</v>
       </c>
       <c r="H20" t="n">
-        <v>18.57974169281238</v>
+        <v>18.57974169281315</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>5.25583845096196</v>
+        <v>5.255838450961846</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>18.57974169281238</v>
+        <v>18.57974169281315</v>
       </c>
     </row>
     <row r="21">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14.36135577888655</v>
+        <v>14.3613557788866</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,16 +2324,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>8.430450309887988</v>
+        <v>8.430450309888045</v>
       </c>
       <c r="F23" t="n">
-        <v>31.20133358976494</v>
+        <v>31.201333589765</v>
       </c>
       <c r="G23" t="n">
-        <v>31.20133358976494</v>
+        <v>31.201333589765</v>
       </c>
       <c r="H23" t="n">
-        <v>26.93091603578142</v>
+        <v>26.93091603578148</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>8.369679121753222</v>
+        <v>8.36967912175362</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>3.749180492028643</v>
+        <v>3.749180492028927</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.20133358976494</v>
+        <v>31.201333589765</v>
       </c>
     </row>
     <row r="24">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>14.36135577888643</v>
+        <v>14.36135577888649</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,16 +2561,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>8.430450309887874</v>
+        <v>8.430450309887931</v>
       </c>
       <c r="F26" t="n">
-        <v>31.20133358976494</v>
+        <v>31.20133358976489</v>
       </c>
       <c r="G26" t="n">
-        <v>31.20133358976494</v>
+        <v>31.20133358976489</v>
       </c>
       <c r="H26" t="n">
-        <v>26.93091603578131</v>
+        <v>26.93091603578137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>8.369679121753109</v>
+        <v>8.369679121753478</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>3.749180492028529</v>
+        <v>3.749180492028813</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.20133358976483</v>
+        <v>31.20133358976489</v>
       </c>
     </row>
     <row r="27">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>14.36135577888666</v>
+        <v>14.36135577888655</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>8.430450309888101</v>
+        <v>8.430450309887988</v>
       </c>
       <c r="F29" t="n">
-        <v>31.20133358976506</v>
+        <v>31.20133358976489</v>
       </c>
       <c r="G29" t="n">
-        <v>31.20133358976506</v>
+        <v>31.20133358976489</v>
       </c>
       <c r="H29" t="n">
-        <v>26.93091603578154</v>
+        <v>26.93091603578142</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>8.369679121753336</v>
+        <v>8.369679121753563</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>3.749180492028756</v>
+        <v>3.74918049202887</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.20133358976506</v>
+        <v>31.20133358976494</v>
       </c>
     </row>
     <row r="30">
@@ -3038,10 +3038,10 @@
         <v>7.293187132985508</v>
       </c>
       <c r="F32" t="n">
-        <v>49.78107528257932</v>
+        <v>49.78107528257842</v>
       </c>
       <c r="G32" t="n">
-        <v>49.78107528257932</v>
+        <v>49.78107528257842</v>
       </c>
       <c r="H32" t="n">
         <v>25.79365285887894</v>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>7.232415944850743</v>
+        <v>7.232415944851084</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.611917315126163</v>
+        <v>2.611917315126391</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>13.53691378038985</v>
+        <v>13.53691378039014</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,16 +3272,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>7.606008311391292</v>
+        <v>7.606008311391577</v>
       </c>
       <c r="F35" t="n">
-        <v>42.34205540438837</v>
+        <v>42.34205540438708</v>
       </c>
       <c r="G35" t="n">
-        <v>42.34205540438837</v>
+        <v>42.34205540438708</v>
       </c>
       <c r="H35" t="n">
-        <v>26.1064740372847</v>
+        <v>26.10647403728501</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>7.545237123256552</v>
+        <v>7.545237123257124</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>2.924738493531937</v>
+        <v>2.924738493532484</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>30.37689159126825</v>
+        <v>30.37689159126853</v>
       </c>
     </row>
     <row r="36">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>13.71453168097526</v>
+        <v>13.71453168097503</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,16 +3509,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>7.783626211976696</v>
+        <v>7.783626211976468</v>
       </c>
       <c r="F38" t="n">
-        <v>41.76865424514313</v>
+        <v>41.76865424514207</v>
       </c>
       <c r="G38" t="n">
-        <v>41.76865424514313</v>
+        <v>41.76865424514207</v>
       </c>
       <c r="H38" t="n">
-        <v>26.28409193787013</v>
+        <v>26.2840919378699</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>7.72285502384193</v>
+        <v>7.722855023842044</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>30.55450949185365</v>
+        <v>30.55450949185342</v>
       </c>
     </row>
     <row r="39">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>14.21451905817543</v>
+        <v>14.21451905817531</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,16 +3746,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>8.283613589176866</v>
+        <v>8.283613589176753</v>
       </c>
       <c r="F41" t="n">
-        <v>33.60024036635172</v>
+        <v>33.60024036635254</v>
       </c>
       <c r="G41" t="n">
-        <v>33.60024036635172</v>
+        <v>33.60024036635254</v>
       </c>
       <c r="H41" t="n">
-        <v>26.7840793150703</v>
+        <v>26.78407931507019</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>8.222842401042101</v>
+        <v>8.2228424010423</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>3.602343771317521</v>
+        <v>3.602343771317635</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.05449686905382</v>
+        <v>31.05449686905371</v>
       </c>
     </row>
     <row r="42">
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>8.369679121753279</v>
+        <v>8.369679121753506</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>3.7491804920287</v>
+        <v>3.74918049202887</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.02682015394573</v>
+        <v>13.36391707158024</v>
       </c>
       <c r="C11" t="n">
-        <v>22.39144983335477</v>
+        <v>20.72854675098967</v>
       </c>
       <c r="D11" t="n">
-        <v>29.75607951276382</v>
+        <v>28.0931764303991</v>
       </c>
       <c r="E11" t="n">
-        <v>22.24191801964164</v>
+        <v>20.57901493727653</v>
       </c>
       <c r="F11" t="n">
-        <v>14.72775652651951</v>
+        <v>13.06485344415396</v>
       </c>
       <c r="G11" t="n">
-        <v>8.109283083377452</v>
+        <v>5.550691951031386</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="I11" t="n">
-        <v>1.447802461656938</v>
+        <v>6.448274866466136</v>
       </c>
       <c r="J11" t="n">
-        <v>8.812432141065983</v>
+        <v>13.81290454587557</v>
       </c>
       <c r="K11" t="n">
-        <v>16.15248756178427</v>
+        <v>13.86680362294612</v>
       </c>
       <c r="L11" t="n">
-        <v>8.638326068662096</v>
+        <v>6.35264212982355</v>
       </c>
       <c r="M11" t="n">
-        <v>8.871239799664039</v>
+        <v>6.585555860825062</v>
       </c>
       <c r="N11" t="n">
-        <v>8.871239799664039</v>
+        <v>8.871239799664584</v>
       </c>
       <c r="O11" t="n">
-        <v>8.109283083377452</v>
+        <v>8.10928308337788</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.6404973485469441</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5951215902552763</v>
+        <v>2.728189201923612</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5951215902552763</v>
+        <v>10.09281888133285</v>
       </c>
       <c r="T11" t="n">
-        <v>7.959751269664402</v>
+        <v>17.45744856074228</v>
       </c>
       <c r="U11" t="n">
-        <v>15.32438094907345</v>
+        <v>24.82207824015171</v>
       </c>
       <c r="V11" t="n">
-        <v>22.68901062848249</v>
+        <v>29.75607951276538</v>
       </c>
       <c r="W11" t="n">
-        <v>29.75607951276382</v>
+        <v>29.75607951276538</v>
       </c>
       <c r="X11" t="n">
-        <v>28.39224005782373</v>
+        <v>28.39224005782546</v>
       </c>
       <c r="Y11" t="n">
-        <v>22.54098164706791</v>
+        <v>20.87807856470281</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="N12" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="P12" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="R12" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="S12" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="T12" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="U12" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="V12" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="W12" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="X12" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="P13" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="R13" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="S13" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="T13" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="U13" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="W13" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="X13" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.5951215902552763</v>
+        <v>0.5951215902553076</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14.64745544817733</v>
+        <v>14.64745544817788</v>
       </c>
       <c r="C14" t="n">
-        <v>22.57975227523915</v>
+        <v>22.57975227523987</v>
       </c>
       <c r="D14" t="n">
-        <v>30.51204910230098</v>
+        <v>30.51204910230186</v>
       </c>
       <c r="E14" t="n">
-        <v>24.92105743280153</v>
+        <v>24.92105743280204</v>
       </c>
       <c r="F14" t="n">
-        <v>16.82770284953265</v>
+        <v>16.827702849533</v>
       </c>
       <c r="G14" t="n">
-        <v>8.734348266263771</v>
+        <v>8.734348266263954</v>
       </c>
       <c r="H14" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="I14" t="n">
-        <v>6.639515312709875</v>
+        <v>5.972195431940837</v>
       </c>
       <c r="J14" t="n">
-        <v>11.60706415166742</v>
+        <v>13.90449225900254</v>
       </c>
       <c r="K14" t="n">
-        <v>19.09248792588994</v>
+        <v>13.90449225900254</v>
       </c>
       <c r="L14" t="n">
-        <v>10.99913334262093</v>
+        <v>5.811137675733498</v>
       </c>
       <c r="M14" t="n">
-        <v>11.37741542712699</v>
+        <v>6.189419760239446</v>
       </c>
       <c r="N14" t="n">
-        <v>13.80846771947092</v>
+        <v>8.62047205258326</v>
       </c>
       <c r="O14" t="n">
-        <v>13.19483092309481</v>
+        <v>8.006835256206969</v>
       </c>
       <c r="P14" t="n">
-        <v>5.828989349882745</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="Q14" t="n">
-        <v>6.019733461678591</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="R14" t="n">
-        <v>8.252793668559441</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="S14" t="n">
-        <v>16.1850904956211</v>
+        <v>8.573290510056898</v>
       </c>
       <c r="T14" t="n">
-        <v>16.1850904956211</v>
+        <v>8.573290510056898</v>
       </c>
       <c r="U14" t="n">
-        <v>24.11738732268292</v>
+        <v>16.18509049562144</v>
       </c>
       <c r="V14" t="n">
-        <v>32.04968414974475</v>
+        <v>24.11738732268343</v>
       </c>
       <c r="W14" t="n">
-        <v>32.04968414974475</v>
+        <v>32.04968414974542</v>
       </c>
       <c r="X14" t="n">
-        <v>30.83416461471508</v>
+        <v>30.83416461471597</v>
       </c>
       <c r="Y14" t="n">
-        <v>22.7408100314462</v>
+        <v>22.74081003144693</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="C15" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="D15" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="E15" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="F15" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="G15" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="H15" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="I15" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="J15" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="K15" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="L15" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="M15" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="N15" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="O15" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="P15" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="R15" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="S15" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="T15" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="U15" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="V15" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="W15" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="X15" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="C16" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="D16" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="E16" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="F16" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="G16" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="H16" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="I16" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="J16" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="K16" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="L16" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="M16" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="N16" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="O16" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="P16" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="R16" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="S16" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="T16" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="U16" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="V16" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="W16" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="X16" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.640993682994895</v>
+        <v>0.6409936829949083</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>32.03478427858823</v>
+        <v>32.03478427858803</v>
       </c>
       <c r="C17" t="n">
-        <v>48.05381084565163</v>
+        <v>44.66173739381449</v>
       </c>
       <c r="D17" t="n">
-        <v>60.68076396087785</v>
+        <v>60.68076396087783</v>
       </c>
       <c r="E17" t="n">
-        <v>50.32729987276973</v>
+        <v>50.32729987276976</v>
       </c>
       <c r="F17" t="n">
-        <v>33.9830221796125</v>
+        <v>33.98302217961238</v>
       </c>
       <c r="G17" t="n">
-        <v>17.63874448645528</v>
+        <v>17.63874448645521</v>
       </c>
       <c r="H17" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="I17" t="n">
-        <v>8.999276715844083</v>
+        <v>8.999276715844125</v>
       </c>
       <c r="J17" t="n">
-        <v>25.0183032829075</v>
+        <v>8.999276715844125</v>
       </c>
       <c r="K17" t="n">
-        <v>25.0183032829075</v>
+        <v>18.19098878289753</v>
       </c>
       <c r="L17" t="n">
-        <v>14.72622423331927</v>
+        <v>7.898909733308972</v>
       </c>
       <c r="M17" t="n">
-        <v>16.81079461065639</v>
+        <v>7.898909733308972</v>
       </c>
       <c r="N17" t="n">
-        <v>16.81079461065639</v>
+        <v>7.898909733308972</v>
       </c>
       <c r="O17" t="n">
-        <v>17.9156574793592</v>
+        <v>9.003772602011509</v>
       </c>
       <c r="P17" t="n">
-        <v>12.29074876282611</v>
+        <v>3.378863885478211</v>
       </c>
       <c r="Q17" t="n">
-        <v>14.18778116745312</v>
+        <v>3.378863885478211</v>
       </c>
       <c r="R17" t="n">
-        <v>18.12712966716509</v>
+        <v>7.318212385190066</v>
       </c>
       <c r="S17" t="n">
-        <v>34.14615623422849</v>
+        <v>23.3372389522534</v>
       </c>
       <c r="T17" t="n">
-        <v>50.16518280129193</v>
+        <v>32.6852865307757</v>
       </c>
       <c r="U17" t="n">
-        <v>64.7233396649026</v>
+        <v>48.70431309783903</v>
       </c>
       <c r="V17" t="n">
-        <v>64.7233396649026</v>
+        <v>64.72333966490237</v>
       </c>
       <c r="W17" t="n">
-        <v>64.7233396649026</v>
+        <v>64.72333966490237</v>
       </c>
       <c r="X17" t="n">
-        <v>64.7233396649026</v>
+        <v>64.72333966490237</v>
       </c>
       <c r="Y17" t="n">
-        <v>48.37906197174546</v>
+        <v>48.3790619717452</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="C18" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="D18" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="E18" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="F18" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="G18" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="H18" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="I18" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="J18" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="K18" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="L18" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="M18" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="N18" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="O18" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="P18" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="R18" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="S18" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="T18" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="U18" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="V18" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="W18" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="X18" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="C19" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="D19" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="E19" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="F19" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="G19" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="H19" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="I19" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="J19" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="K19" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="L19" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="M19" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="N19" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="O19" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="P19" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="R19" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="S19" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="T19" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="U19" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="V19" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="W19" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="X19" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.294466793298052</v>
+        <v>1.294466793298047</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.03822143745289</v>
+        <v>39.52325421505824</v>
       </c>
       <c r="C20" t="n">
-        <v>49.43216571333715</v>
+        <v>49.43216571333843</v>
       </c>
       <c r="D20" t="n">
-        <v>67.82610998922141</v>
+        <v>67.82610998922345</v>
       </c>
       <c r="E20" t="n">
-        <v>57.78862688940191</v>
+        <v>57.78862688940429</v>
       </c>
       <c r="F20" t="n">
-        <v>39.02121103807627</v>
+        <v>39.02121103807788</v>
       </c>
       <c r="G20" t="n">
-        <v>20.25379518675063</v>
+        <v>20.25379518675146</v>
       </c>
       <c r="H20" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="I20" t="n">
-        <v>9.500882224592765</v>
+        <v>1.961072363049137</v>
       </c>
       <c r="J20" t="n">
-        <v>27.89482650047702</v>
+        <v>1.961072363049137</v>
       </c>
       <c r="K20" t="n">
-        <v>37.39623153415231</v>
+        <v>11.46247739672459</v>
       </c>
       <c r="L20" t="n">
-        <v>27.42013347285277</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="M20" t="n">
-        <v>29.81439681681163</v>
+        <v>3.880642679383868</v>
       </c>
       <c r="N20" t="n">
-        <v>34.26143036860836</v>
+        <v>8.32767623118059</v>
       </c>
       <c r="O20" t="n">
-        <v>35.67598620393281</v>
+        <v>9.74223206650519</v>
       </c>
       <c r="P20" t="n">
-        <v>30.36705847568837</v>
+        <v>4.433304338260598</v>
       </c>
       <c r="Q20" t="n">
-        <v>32.57378384693712</v>
+        <v>6.640029709509466</v>
       </c>
       <c r="R20" t="n">
-        <v>36.82282531327304</v>
+        <v>6.640029709509466</v>
       </c>
       <c r="S20" t="n">
-        <v>36.82282531327304</v>
+        <v>25.03397398539448</v>
       </c>
       <c r="T20" t="n">
-        <v>55.21676958915729</v>
+        <v>43.4279182612795</v>
       </c>
       <c r="U20" t="n">
-        <v>55.21676958915729</v>
+        <v>43.4279182612795</v>
       </c>
       <c r="V20" t="n">
-        <v>55.21676958915729</v>
+        <v>61.82186253716452</v>
       </c>
       <c r="W20" t="n">
-        <v>65.00928343047684</v>
+        <v>73.49431620808203</v>
       </c>
       <c r="X20" t="n">
-        <v>65.83393399364708</v>
+        <v>74.31896677125259</v>
       </c>
       <c r="Y20" t="n">
-        <v>47.06651814232144</v>
+        <v>55.55155091992648</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="C21" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="D21" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="E21" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="F21" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="G21" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="H21" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="I21" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="J21" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="K21" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="L21" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="M21" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="N21" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="O21" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="P21" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="R21" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="S21" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="T21" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="U21" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="V21" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="W21" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="X21" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="C22" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="D22" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="E22" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="F22" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="G22" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="H22" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="I22" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="J22" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="K22" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="L22" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="M22" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="N22" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="O22" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="P22" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="R22" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="S22" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="T22" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="U22" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="V22" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="W22" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="X22" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.486379335424991</v>
+        <v>1.486379335425052</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>49.2312566707095</v>
+        <v>49.23125667070578</v>
       </c>
       <c r="C23" t="n">
-        <v>70.35833544867067</v>
+        <v>70.35833544866689</v>
       </c>
       <c r="D23" t="n">
-        <v>101.247655702538</v>
+        <v>101.2476557025342</v>
       </c>
       <c r="E23" t="n">
-        <v>92.73204932891375</v>
+        <v>92.73204932890997</v>
       </c>
       <c r="F23" t="n">
-        <v>61.21555075338965</v>
+        <v>61.21555075338976</v>
       </c>
       <c r="G23" t="n">
-        <v>29.6990521778695</v>
+        <v>29.69905217786956</v>
       </c>
       <c r="H23" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="I23" t="n">
-        <v>12.00220095569298</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="J23" t="n">
-        <v>42.89152120956031</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="K23" t="n">
-        <v>53.88451762257962</v>
+        <v>11.83123180966709</v>
       </c>
       <c r="L23" t="n">
-        <v>45.43029628747536</v>
+        <v>3.377010474562439</v>
       </c>
       <c r="M23" t="n">
-        <v>49.31615101077841</v>
+        <v>3.377010474562439</v>
       </c>
       <c r="N23" t="n">
-        <v>49.31615101077841</v>
+        <v>3.377010474562439</v>
       </c>
       <c r="O23" t="n">
-        <v>52.22229822544695</v>
+        <v>6.283157689230734</v>
       </c>
       <c r="P23" t="n">
-        <v>48.43524722339778</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="Q23" t="n">
-        <v>48.43524722339778</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="R23" t="n">
-        <v>54.17588006907546</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="S23" t="n">
-        <v>54.17588006907546</v>
+        <v>33.38542694104855</v>
       </c>
       <c r="T23" t="n">
-        <v>85.06520032294276</v>
+        <v>64.2747471949159</v>
       </c>
       <c r="U23" t="n">
-        <v>85.06520032294276</v>
+        <v>66.40987739500403</v>
       </c>
       <c r="V23" t="n">
-        <v>85.06520032294276</v>
+        <v>66.40987739500403</v>
       </c>
       <c r="W23" t="n">
-        <v>95.25417522490295</v>
+        <v>92.9379332823851</v>
       </c>
       <c r="X23" t="n">
-        <v>95.25417522490295</v>
+        <v>95.25417522489929</v>
       </c>
       <c r="Y23" t="n">
-        <v>63.73767664938281</v>
+        <v>63.73767664937914</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="C24" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="D24" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="E24" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="F24" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="G24" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="H24" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="I24" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="J24" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="K24" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="L24" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="M24" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="N24" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="O24" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="P24" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="R24" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="S24" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="T24" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="U24" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="V24" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="W24" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="X24" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="C25" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="D25" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="E25" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="F25" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="G25" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="H25" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="I25" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="J25" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="K25" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="L25" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="M25" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="N25" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="O25" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="P25" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="R25" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="S25" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="T25" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="U25" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="V25" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="W25" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="X25" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.496106687181196</v>
+        <v>2.4961066871812</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>78.78241580486673</v>
+        <v>49.23125667070532</v>
       </c>
       <c r="C26" t="n">
-        <v>99.90949458282802</v>
+        <v>70.35833544866655</v>
       </c>
       <c r="D26" t="n">
         <v>101.2476557025338</v>
       </c>
       <c r="E26" t="n">
-        <v>92.73204932890968</v>
+        <v>92.73204932890962</v>
       </c>
       <c r="F26" t="n">
-        <v>61.21555075338954</v>
+        <v>61.21555075338953</v>
       </c>
       <c r="G26" t="n">
-        <v>29.69905217786939</v>
+        <v>29.69905217786944</v>
       </c>
       <c r="H26" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="I26" t="n">
-        <v>12.00220095569304</v>
+        <v>12.00220095569293</v>
       </c>
       <c r="J26" t="n">
-        <v>42.89152120956034</v>
+        <v>21.23098864642419</v>
       </c>
       <c r="K26" t="n">
-        <v>53.88451762257979</v>
+        <v>21.23098864642419</v>
       </c>
       <c r="L26" t="n">
-        <v>45.43029628747506</v>
+        <v>12.77676731131967</v>
       </c>
       <c r="M26" t="n">
-        <v>45.43029628747506</v>
+        <v>16.66262203462227</v>
       </c>
       <c r="N26" t="n">
-        <v>45.43029628747506</v>
+        <v>22.6012469657627</v>
       </c>
       <c r="O26" t="n">
-        <v>48.33644350214371</v>
+        <v>25.5073941804309</v>
       </c>
       <c r="P26" t="n">
-        <v>44.54939250009465</v>
+        <v>21.7203431783815</v>
       </c>
       <c r="Q26" t="n">
-        <v>48.24770925068754</v>
+        <v>25.4186599289741</v>
       </c>
       <c r="R26" t="n">
-        <v>53.98834209636524</v>
+        <v>31.15929277465006</v>
       </c>
       <c r="S26" t="n">
-        <v>53.98834209636524</v>
+        <v>31.15929277465006</v>
       </c>
       <c r="T26" t="n">
-        <v>53.98834209636524</v>
+        <v>31.15929277465006</v>
       </c>
       <c r="U26" t="n">
-        <v>84.87766235023254</v>
+        <v>62.04861302851729</v>
       </c>
       <c r="V26" t="n">
-        <v>115.7669826040998</v>
+        <v>92.93793328238453</v>
       </c>
       <c r="W26" t="n">
-        <v>122.4890924165454</v>
+        <v>92.93793328238453</v>
       </c>
       <c r="X26" t="n">
-        <v>124.8053343590598</v>
+        <v>95.25417522489866</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.28883578353989</v>
+        <v>63.73767664937857</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="C27" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="D27" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="E27" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="F27" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="G27" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="H27" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="I27" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="J27" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="K27" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="L27" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="M27" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="N27" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="O27" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="P27" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="R27" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="S27" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="T27" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="U27" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="V27" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="W27" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="X27" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="C28" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="D28" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="E28" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="F28" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="G28" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="H28" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="I28" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="J28" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="K28" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="L28" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="M28" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="N28" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="O28" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="P28" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="R28" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="S28" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="T28" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="U28" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="V28" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="W28" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="X28" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.496106687181196</v>
+        <v>2.496106687181191</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>49.23125667070597</v>
+        <v>78.78241580486625</v>
       </c>
       <c r="C29" t="n">
-        <v>70.35833544866703</v>
+        <v>78.78241580486625</v>
       </c>
       <c r="D29" t="n">
-        <v>101.2476557025344</v>
+        <v>101.2476557025339</v>
       </c>
       <c r="E29" t="n">
-        <v>92.73204932891014</v>
+        <v>92.73204932890965</v>
       </c>
       <c r="F29" t="n">
-        <v>61.21555075338987</v>
+        <v>61.21555075338957</v>
       </c>
       <c r="G29" t="n">
-        <v>29.69905217786962</v>
+        <v>29.6990521778695</v>
       </c>
       <c r="H29" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="I29" t="n">
-        <v>12.00220095569288</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="J29" t="n">
-        <v>42.89152120956028</v>
+        <v>10.95032802228578</v>
       </c>
       <c r="K29" t="n">
-        <v>53.88451762257936</v>
+        <v>10.95032802228578</v>
       </c>
       <c r="L29" t="n">
-        <v>45.43029628747495</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="M29" t="n">
-        <v>45.43029628747495</v>
+        <v>6.381961410483697</v>
       </c>
       <c r="N29" t="n">
-        <v>51.36892121861553</v>
+        <v>6.381961410483697</v>
       </c>
       <c r="O29" t="n">
-        <v>51.36892121861553</v>
+        <v>6.381961410483697</v>
       </c>
       <c r="P29" t="n">
-        <v>47.58187021656628</v>
+        <v>2.594910408434316</v>
       </c>
       <c r="Q29" t="n">
-        <v>47.58187021656628</v>
+        <v>6.293227159026856</v>
       </c>
       <c r="R29" t="n">
-        <v>53.3225030622438</v>
+        <v>6.293227159026856</v>
       </c>
       <c r="S29" t="n">
-        <v>53.3225030622438</v>
+        <v>37.1825474128941</v>
       </c>
       <c r="T29" t="n">
-        <v>84.21182331611121</v>
+        <v>37.1825474128941</v>
       </c>
       <c r="U29" t="n">
-        <v>95.25417522489965</v>
+        <v>68.07186766676134</v>
       </c>
       <c r="V29" t="n">
-        <v>95.25417522489965</v>
+        <v>98.96118792062896</v>
       </c>
       <c r="W29" t="n">
-        <v>95.25417522489965</v>
+        <v>122.4890924165453</v>
       </c>
       <c r="X29" t="n">
-        <v>95.25417522489965</v>
+        <v>124.8053343590595</v>
       </c>
       <c r="Y29" t="n">
-        <v>63.7376766493794</v>
+        <v>93.28883578353953</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="C30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="D30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="E30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="F30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="G30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="H30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="I30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="J30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="K30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="L30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="M30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="N30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="O30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="P30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="R30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="S30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="T30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="U30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="V30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="W30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="X30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="Y30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="C31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="D31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="E31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="F31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="G31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="H31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="I31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="J31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="K31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="L31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="M31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="N31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="O31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="P31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="R31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="S31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="T31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="U31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="V31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="W31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="X31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181191</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>94.60552059284743</v>
+        <v>115.7183960500379</v>
       </c>
       <c r="C32" t="n">
-        <v>116.8584899159408</v>
+        <v>137.9713653731325</v>
       </c>
       <c r="D32" t="n">
-        <v>137.9713653731347</v>
+        <v>137.9713653731325</v>
       </c>
       <c r="E32" t="n">
-        <v>130.6045096832504</v>
+        <v>130.6045096832481</v>
       </c>
       <c r="F32" t="n">
-        <v>80.32059525640257</v>
+        <v>80.32059525640123</v>
       </c>
       <c r="G32" t="n">
-        <v>30.03668082955478</v>
+        <v>30.03668082955434</v>
       </c>
       <c r="H32" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="I32" t="n">
-        <v>14.61447083625155</v>
+        <v>14.6144708362515</v>
       </c>
       <c r="J32" t="n">
-        <v>63.89773536600512</v>
+        <v>14.6144708362515</v>
       </c>
       <c r="K32" t="n">
-        <v>76.01662232415791</v>
+        <v>14.6144708362515</v>
       </c>
       <c r="L32" t="n">
-        <v>68.71115167279352</v>
+        <v>7.309000184886767</v>
       </c>
       <c r="M32" t="n">
-        <v>73.72289694122969</v>
+        <v>12.32074545332273</v>
       </c>
       <c r="N32" t="n">
-        <v>80.78741241750386</v>
+        <v>12.32074545332273</v>
       </c>
       <c r="O32" t="n">
-        <v>84.8194501773058</v>
+        <v>12.32074545332273</v>
       </c>
       <c r="P32" t="n">
-        <v>82.18114985899651</v>
+        <v>9.682445135013168</v>
       </c>
       <c r="Q32" t="n">
-        <v>82.18114985899651</v>
+        <v>9.682445135013168</v>
       </c>
       <c r="R32" t="n">
-        <v>89.04767324980759</v>
+        <v>9.682445135013168</v>
       </c>
       <c r="S32" t="n">
-        <v>138.3309377795611</v>
+        <v>42.71428467075712</v>
       </c>
       <c r="T32" t="n">
-        <v>138.3309377795611</v>
+        <v>91.99754920050975</v>
       </c>
       <c r="U32" t="n">
-        <v>138.3309377795611</v>
+        <v>91.99754920050975</v>
       </c>
       <c r="V32" t="n">
-        <v>138.3309377795611</v>
+        <v>128.3477343165894</v>
       </c>
       <c r="W32" t="n">
-        <v>138.3309377795611</v>
+        <v>156.0016807491039</v>
       </c>
       <c r="X32" t="n">
-        <v>138.3309377795611</v>
+        <v>159.4438132367516</v>
       </c>
       <c r="Y32" t="n">
-        <v>107.9631898877809</v>
+        <v>129.0760653449713</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="C33" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="D33" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="E33" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="F33" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="G33" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="H33" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="I33" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="J33" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="K33" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="L33" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="M33" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="N33" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="O33" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="P33" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="R33" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="S33" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="T33" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="U33" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="V33" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="W33" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="X33" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="Y33" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="C34" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="D34" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="E34" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="F34" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="G34" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="H34" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="I34" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="J34" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="K34" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="L34" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="M34" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="N34" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="O34" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="P34" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="R34" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="S34" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="T34" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="U34" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="V34" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="W34" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="X34" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.982486022606346</v>
+        <v>3.982486022606274</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>63.42456956843189</v>
+        <v>76.36031194733691</v>
       </c>
       <c r="C35" t="n">
-        <v>85.3678459249048</v>
+        <v>98.30358830380953</v>
       </c>
       <c r="D35" t="n">
-        <v>122.9798827732124</v>
+        <v>122.9798827732103</v>
       </c>
       <c r="E35" t="n">
-        <v>115.2970460950394</v>
+        <v>115.297046095037</v>
       </c>
       <c r="F35" t="n">
-        <v>72.52729316131376</v>
+        <v>72.52729316131267</v>
       </c>
       <c r="G35" t="n">
-        <v>29.75754022758814</v>
+        <v>29.75754022758835</v>
       </c>
       <c r="H35" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="I35" t="n">
-        <v>13.70965627937455</v>
+        <v>11.00881607200463</v>
       </c>
       <c r="J35" t="n">
-        <v>54.33574467068742</v>
+        <v>11.00881607200463</v>
       </c>
       <c r="K35" t="n">
-        <v>66.14493866221848</v>
+        <v>11.00881607200463</v>
       </c>
       <c r="L35" t="n">
-        <v>58.52348702256539</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="M35" t="n">
-        <v>63.22553932437997</v>
+        <v>8.08941673416494</v>
       </c>
       <c r="N35" t="n">
-        <v>69.98036183403239</v>
+        <v>8.08941673416494</v>
       </c>
       <c r="O35" t="n">
-        <v>73.70270662721266</v>
+        <v>11.81176152734461</v>
       </c>
       <c r="P35" t="n">
-        <v>70.74842532061474</v>
+        <v>8.857480220746144</v>
       </c>
       <c r="Q35" t="n">
-        <v>70.74842532061474</v>
+        <v>8.857480220746144</v>
       </c>
       <c r="R35" t="n">
-        <v>77.3052557448041</v>
+        <v>15.41431064493511</v>
       </c>
       <c r="S35" t="n">
-        <v>77.3052557448041</v>
+        <v>57.33294549527831</v>
       </c>
       <c r="T35" t="n">
-        <v>77.3052557448041</v>
+        <v>57.33294549527831</v>
       </c>
       <c r="U35" t="n">
-        <v>77.3052557448041</v>
+        <v>57.33294549527831</v>
       </c>
       <c r="V35" t="n">
-        <v>77.3052557448041</v>
+        <v>93.37343764473593</v>
       </c>
       <c r="W35" t="n">
-        <v>104.6495092106969</v>
+        <v>120.7176911106285</v>
       </c>
       <c r="X35" t="n">
-        <v>107.7819487317229</v>
+        <v>120.7176911106285</v>
       </c>
       <c r="Y35" t="n">
-        <v>77.09821985165397</v>
+        <v>90.03396223055927</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="C36" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="D36" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="E36" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="F36" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="G36" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="H36" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="I36" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="J36" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="K36" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="L36" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="M36" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="N36" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="O36" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="P36" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="R36" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="S36" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="T36" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="U36" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="V36" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="W36" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="X36" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="Y36" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="C37" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="D37" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="E37" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="F37" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="G37" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="H37" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="I37" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="J37" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="K37" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="L37" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="M37" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="N37" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="O37" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="P37" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="R37" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="S37" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="T37" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="U37" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="V37" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="W37" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="X37" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.387364432351069</v>
+        <v>3.387364432350966</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>63.36126973934118</v>
+        <v>100.3670139068698</v>
       </c>
       <c r="C38" t="n">
-        <v>85.12870437423453</v>
+        <v>122.1344485417633</v>
       </c>
       <c r="D38" t="n">
-        <v>122.1344485417662</v>
+        <v>122.1344485417633</v>
       </c>
       <c r="E38" t="n">
-        <v>114.2721998427998</v>
+        <v>114.2721998427973</v>
       </c>
       <c r="F38" t="n">
-        <v>72.08163999922083</v>
+        <v>72.08163999921942</v>
       </c>
       <c r="G38" t="n">
-        <v>29.8910801556419</v>
+        <v>29.89108015564157</v>
       </c>
       <c r="H38" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="I38" t="n">
-        <v>13.4879424650554</v>
+        <v>13.48794246505545</v>
       </c>
       <c r="J38" t="n">
-        <v>54.83891016774709</v>
+        <v>54.83891016774626</v>
       </c>
       <c r="K38" t="n">
-        <v>66.47226243769859</v>
+        <v>54.83891016774626</v>
       </c>
       <c r="L38" t="n">
-        <v>58.67139877725222</v>
+        <v>47.03804650729975</v>
       </c>
       <c r="M38" t="n">
-        <v>63.19760935748725</v>
+        <v>51.56425708753466</v>
       </c>
       <c r="N38" t="n">
-        <v>69.77659014556008</v>
+        <v>54.79531372362503</v>
       </c>
       <c r="O38" t="n">
-        <v>73.32309321716076</v>
+        <v>54.79531372362503</v>
       </c>
       <c r="P38" t="n">
-        <v>70.1893998897695</v>
+        <v>51.66162039623377</v>
       </c>
       <c r="Q38" t="n">
-        <v>74.5280724972944</v>
+        <v>56.00029300375864</v>
       </c>
       <c r="R38" t="n">
-        <v>80.90906119990557</v>
+        <v>62.38128170636834</v>
       </c>
       <c r="S38" t="n">
-        <v>80.90906119990557</v>
+        <v>103.732249409059</v>
       </c>
       <c r="T38" t="n">
-        <v>80.90906119990557</v>
+        <v>103.732249409059</v>
       </c>
       <c r="U38" t="n">
-        <v>80.90906119990557</v>
+        <v>145.0832171117496</v>
       </c>
       <c r="V38" t="n">
-        <v>80.90906119990557</v>
+        <v>145.0832171117496</v>
       </c>
       <c r="W38" t="n">
-        <v>108.0774729442189</v>
+        <v>145.0832171117496</v>
       </c>
       <c r="X38" t="n">
-        <v>108.0774729442189</v>
+        <v>145.0832171117496</v>
       </c>
       <c r="Y38" t="n">
-        <v>77.21433204335659</v>
+        <v>114.220076210885</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="C39" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="D39" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="E39" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="F39" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="G39" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="H39" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="I39" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="J39" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="K39" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="L39" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="M39" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="N39" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="O39" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="P39" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="R39" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="S39" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="T39" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="U39" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="V39" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="W39" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="X39" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="Y39" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="C40" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="D40" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="E40" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="F40" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="G40" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="H40" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="I40" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="J40" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="K40" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="L40" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="M40" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="N40" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="O40" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="P40" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="R40" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="S40" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="T40" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="U40" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="V40" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="W40" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="X40" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
       <c r="Y40" t="n">
-        <v>3.341492339611451</v>
+        <v>3.341492339611365</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>51.45251962702402</v>
+        <v>51.4525196270246</v>
       </c>
       <c r="C41" t="n">
-        <v>72.7249667584892</v>
+        <v>72.7249667584899</v>
       </c>
       <c r="D41" t="n">
-        <v>105.9892047211774</v>
+        <v>105.9892047211789</v>
       </c>
       <c r="E41" t="n">
-        <v>97.62191826746343</v>
+        <v>97.62191826746505</v>
       </c>
       <c r="F41" t="n">
-        <v>63.68228153377483</v>
+        <v>63.68228153377561</v>
       </c>
       <c r="G41" t="n">
-        <v>29.74264480008622</v>
+        <v>29.74264480008617</v>
       </c>
       <c r="H41" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="I41" t="n">
-        <v>12.33948185132395</v>
+        <v>12.33948185132406</v>
       </c>
       <c r="J41" t="n">
-        <v>12.33948185132395</v>
+        <v>32.37334368690039</v>
       </c>
       <c r="K41" t="n">
-        <v>23.47784661784729</v>
+        <v>32.37334368690039</v>
       </c>
       <c r="L41" t="n">
-        <v>15.17194520265318</v>
+        <v>24.06744227170615</v>
       </c>
       <c r="M41" t="n">
-        <v>15.17194520265318</v>
+        <v>28.09866534851282</v>
       </c>
       <c r="N41" t="n">
-        <v>15.17194520265318</v>
+        <v>28.09866534851282</v>
       </c>
       <c r="O41" t="n">
-        <v>15.17194520265318</v>
+        <v>31.15018091668534</v>
       </c>
       <c r="P41" t="n">
-        <v>11.53321412051426</v>
+        <v>27.51144983454625</v>
       </c>
       <c r="Q41" t="n">
-        <v>15.37689922461102</v>
+        <v>31.35513493864293</v>
       </c>
       <c r="R41" t="n">
-        <v>15.37689922461102</v>
+        <v>37.24113613782304</v>
       </c>
       <c r="S41" t="n">
-        <v>15.37689922461102</v>
+        <v>37.24113613782304</v>
       </c>
       <c r="T41" t="n">
-        <v>48.64113718729922</v>
+        <v>37.24113613782304</v>
       </c>
       <c r="U41" t="n">
-        <v>68.04376380449276</v>
+        <v>70.50537410051206</v>
       </c>
       <c r="V41" t="n">
-        <v>68.04376380449276</v>
+        <v>70.50537410051206</v>
       </c>
       <c r="W41" t="n">
-        <v>94.71718804537871</v>
+        <v>97.17879834139731</v>
       </c>
       <c r="X41" t="n">
-        <v>97.17879834139696</v>
+        <v>97.17879834139731</v>
       </c>
       <c r="Y41" t="n">
-        <v>65.81061968578707</v>
+        <v>65.81061968578754</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="C42" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="D42" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="E42" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="F42" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="G42" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="H42" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="I42" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="J42" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="K42" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="L42" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="M42" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="N42" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="O42" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="P42" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="R42" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="S42" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="T42" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="U42" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="V42" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="W42" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="X42" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="Y42" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="C43" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="D43" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="E43" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="F43" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="G43" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="H43" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="I43" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="J43" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="K43" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="L43" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="M43" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="N43" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="O43" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="P43" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="R43" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="S43" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="T43" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="U43" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="V43" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="W43" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="X43" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.688019229308138</v>
+        <v>2.688019229308204</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>64.32181659016021</v>
+        <v>49.23125667070576</v>
       </c>
       <c r="C44" t="n">
         <v>70.35833544866688</v>
@@ -7646,52 +7646,52 @@
         <v>2.4961066871812</v>
       </c>
       <c r="J44" t="n">
-        <v>33.38542694104854</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="K44" t="n">
-        <v>44.37842335406779</v>
+        <v>10.95032802228582</v>
       </c>
       <c r="L44" t="n">
-        <v>35.92420201896347</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="M44" t="n">
-        <v>39.81005674226626</v>
+        <v>6.381961410483763</v>
       </c>
       <c r="N44" t="n">
-        <v>45.7486816734063</v>
+        <v>6.381961410483763</v>
       </c>
       <c r="O44" t="n">
-        <v>48.65482888807477</v>
+        <v>6.381961410483763</v>
       </c>
       <c r="P44" t="n">
-        <v>44.86777788602559</v>
+        <v>2.594910408434373</v>
       </c>
       <c r="Q44" t="n">
-        <v>48.56609463661833</v>
+        <v>2.594910408434373</v>
       </c>
       <c r="R44" t="n">
-        <v>48.56609463661833</v>
+        <v>6.947478829784012</v>
       </c>
       <c r="S44" t="n">
-        <v>48.56609463661833</v>
+        <v>6.947478829784012</v>
       </c>
       <c r="T44" t="n">
-        <v>79.45541489048568</v>
+        <v>37.83679908365136</v>
       </c>
       <c r="U44" t="n">
-        <v>110.344735144353</v>
+        <v>37.83679908365136</v>
       </c>
       <c r="V44" t="n">
-        <v>110.344735144353</v>
+        <v>68.72611933751871</v>
       </c>
       <c r="W44" t="n">
-        <v>110.344735144353</v>
+        <v>95.25417522489978</v>
       </c>
       <c r="X44" t="n">
-        <v>110.344735144353</v>
+        <v>95.25417522489978</v>
       </c>
       <c r="Y44" t="n">
-        <v>78.82823656883357</v>
+        <v>63.73767664937913</v>
       </c>
     </row>
     <row r="45">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.61217528685824</v>
+        <v>10.61217528685768</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>4.681269817859679</v>
+        <v>4.681269817859118</v>
       </c>
       <c r="F11" t="n">
-        <v>48.87314409221749</v>
+        <v>48.87314409221693</v>
       </c>
       <c r="G11" t="n">
-        <v>79.63523599480796</v>
+        <v>78.74850482532707</v>
       </c>
       <c r="H11" t="n">
-        <v>23.18173554375311</v>
+        <v>25.71474076477558</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23285,7 +23285,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>4.620498629724914</v>
+        <v>4.620498629724693</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.09842714927928</v>
+        <v>27.45215309773607</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.891937406901658</v>
+        <v>9.891937406901263</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.438371222534828</v>
+        <v>6.438371222534242</v>
       </c>
       <c r="F14" t="n">
-        <v>48.15290621226092</v>
+        <v>48.15290621226052</v>
       </c>
       <c r="G14" t="n">
-        <v>78.02826694537106</v>
+        <v>78.02826694537066</v>
       </c>
       <c r="H14" t="n">
-        <v>22.46149766379653</v>
+        <v>22.46149766379614</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23522,7 +23522,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>3.900260749768332</v>
+        <v>3.900260749768279</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.73191521778005</v>
+        <v>26.73191521777966</v>
       </c>
     </row>
     <row r="15">
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>35.54924085036674</v>
+        <v>35.54924085036563</v>
       </c>
       <c r="G20" t="n">
-        <v>65.42460158347689</v>
+        <v>65.42460158347578</v>
       </c>
       <c r="H20" t="n">
-        <v>9.857832301902356</v>
+        <v>9.857832301901251</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>14.12824985588588</v>
+        <v>14.12824985588477</v>
       </c>
     </row>
     <row r="21">
@@ -24452,10 +24452,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>21.42099099448075</v>
+        <v>21.42099099448086</v>
       </c>
       <c r="G26" t="n">
-        <v>51.29635172759089</v>
+        <v>51.296351727591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24689,10 +24689,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>21.42099099448086</v>
+        <v>21.42099099448092</v>
       </c>
       <c r="G29" t="n">
-        <v>51.296351727591</v>
+        <v>51.29635172759106</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24926,10 +24926,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.703986124764</v>
+        <v>1.703986124764903</v>
       </c>
       <c r="G32" t="n">
-        <v>31.57934685787414</v>
+        <v>31.57934685787504</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25163,10 +25163,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>9.455827181360739</v>
+        <v>9.455827181362338</v>
       </c>
       <c r="G35" t="n">
-        <v>39.33118791447087</v>
+        <v>39.33118791447247</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25400,10 +25400,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>10.20684624119138</v>
+        <v>10.20684624119222</v>
       </c>
       <c r="G38" t="n">
-        <v>40.08220697430152</v>
+        <v>40.08220697430236</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25637,10 +25637,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>18.87524749718296</v>
+        <v>18.87524749718202</v>
       </c>
       <c r="G41" t="n">
-        <v>48.7506082302931</v>
+        <v>48.75060823029217</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1245564.309740672</v>
+        <v>1245564.309740671</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1243872.240577503</v>
+        <v>1243872.240577502</v>
       </c>
     </row>
     <row r="15">
@@ -26320,34 +26320,34 @@
         <v>498495.6193451277</v>
       </c>
       <c r="E2" t="n">
-        <v>491562.4415857005</v>
+        <v>491562.4415857008</v>
       </c>
       <c r="F2" t="n">
-        <v>491765.3153633247</v>
+        <v>491765.315363325</v>
       </c>
       <c r="G2" t="n">
         <v>494145.2884597958</v>
       </c>
       <c r="H2" t="n">
-        <v>494576.9955502307</v>
+        <v>494576.9955502309</v>
       </c>
       <c r="I2" t="n">
-        <v>496656.2503086392</v>
+        <v>496656.2503086391</v>
       </c>
       <c r="J2" t="n">
         <v>496656.2503086391</v>
       </c>
       <c r="K2" t="n">
-        <v>496656.2503086391</v>
+        <v>496656.2503086392</v>
       </c>
       <c r="L2" t="n">
-        <v>498225.7238962686</v>
+        <v>498225.7238962685</v>
       </c>
       <c r="M2" t="n">
-        <v>497608.6773481636</v>
+        <v>497608.6773481633</v>
       </c>
       <c r="N2" t="n">
-        <v>497548.8962310009</v>
+        <v>497548.896231001</v>
       </c>
       <c r="O2" t="n">
         <v>496858.8914910241</v>
@@ -26375,31 +26375,31 @@
         <v>313501.2384478712</v>
       </c>
       <c r="F3" t="n">
-        <v>281.7637171229786</v>
+        <v>281.7637171229599</v>
       </c>
       <c r="G3" t="n">
-        <v>3617.658540457767</v>
+        <v>3617.658540457569</v>
       </c>
       <c r="H3" t="n">
-        <v>897.5035812087175</v>
+        <v>897.5035812091663</v>
       </c>
       <c r="I3" t="n">
-        <v>4561.672705976175</v>
+        <v>4561.672705975669</v>
       </c>
       <c r="J3" t="n">
-        <v>272094.7506404561</v>
+        <v>272094.7506404562</v>
       </c>
       <c r="K3" t="n">
-        <v>117.4693765689716</v>
+        <v>117.4693765690601</v>
       </c>
       <c r="L3" t="n">
-        <v>6990.994768787887</v>
+        <v>6990.994768787474</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1063.232046678331</v>
+        <v>1063.232046678422</v>
       </c>
       <c r="O3" t="n">
         <v>271694.760738696</v>
@@ -26424,22 +26424,22 @@
         <v>569049.7736743361</v>
       </c>
       <c r="E4" t="n">
-        <v>544187.9465818119</v>
+        <v>544187.9465818123</v>
       </c>
       <c r="F4" t="n">
-        <v>544423.323652287</v>
+        <v>544423.3236522872</v>
       </c>
       <c r="G4" t="n">
-        <v>547186.3014893166</v>
+        <v>547186.3014893167</v>
       </c>
       <c r="H4" t="n">
-        <v>547687.8238684</v>
+        <v>547687.8238684003</v>
       </c>
       <c r="I4" t="n">
         <v>550103.3338664114</v>
       </c>
       <c r="J4" t="n">
-        <v>550103.3338664111</v>
+        <v>550103.3338664114</v>
       </c>
       <c r="K4" t="n">
         <v>550103.3338664111</v>
@@ -26451,13 +26451,13 @@
         <v>551208.6645716454</v>
       </c>
       <c r="N4" t="n">
-        <v>551140.3376974373</v>
+        <v>551140.3376974375</v>
       </c>
       <c r="O4" t="n">
-        <v>550338.7460014947</v>
+        <v>550338.7460014949</v>
       </c>
       <c r="P4" t="n">
-        <v>550103.3338664111</v>
+        <v>550103.3338664112</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>30108.98754222761</v>
+        <v>30108.98754222763</v>
       </c>
       <c r="F5" t="n">
-        <v>30156.1947489832</v>
+        <v>30156.19474898322</v>
       </c>
       <c r="G5" t="n">
-        <v>30797.72921229846</v>
+        <v>30797.72921229845</v>
       </c>
       <c r="H5" t="n">
-        <v>30969.88130796233</v>
+        <v>30969.88130796239</v>
       </c>
       <c r="I5" t="n">
-        <v>31863.93732324661</v>
+        <v>31863.9373232466</v>
       </c>
       <c r="J5" t="n">
-        <v>31863.93732324662</v>
+        <v>31863.9373232466</v>
       </c>
       <c r="K5" t="n">
-        <v>31863.93732324661</v>
+        <v>31863.9373232466</v>
       </c>
       <c r="L5" t="n">
-        <v>33089.19419618874</v>
+        <v>33089.19419618868</v>
       </c>
       <c r="M5" t="n">
-        <v>32610.60322394734</v>
+        <v>32610.60322394722</v>
       </c>
       <c r="N5" t="n">
-        <v>32560.80827418091</v>
+        <v>32560.80827418085</v>
       </c>
       <c r="O5" t="n">
-        <v>32022.13527153655</v>
+        <v>32022.1352715366</v>
       </c>
       <c r="P5" t="n">
-        <v>31863.93732324661</v>
+        <v>31863.9373232466</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-104181.7543292084</v>
+        <v>-104187.0282352277</v>
       </c>
       <c r="C6" t="n">
-        <v>-104181.7543292085</v>
+        <v>-104187.0282352277</v>
       </c>
       <c r="D6" t="n">
-        <v>-104181.7543292084</v>
+        <v>-104187.0282352277</v>
       </c>
       <c r="E6" t="n">
-        <v>-396235.7309862102</v>
+        <v>-396275.6707810267</v>
       </c>
       <c r="F6" t="n">
-        <v>-83095.96675506851</v>
+        <v>-83134.89218099669</v>
       </c>
       <c r="G6" t="n">
-        <v>-87456.40078227705</v>
+        <v>-87483.42634272289</v>
       </c>
       <c r="H6" t="n">
-        <v>-84978.21320734032</v>
+        <v>-85003.08023233469</v>
       </c>
       <c r="I6" t="n">
-        <v>-89872.69358699495</v>
+        <v>-89887.16433819622</v>
       </c>
       <c r="J6" t="n">
-        <v>-357405.7715214748</v>
+        <v>-357420.2422726768</v>
       </c>
       <c r="K6" t="n">
-        <v>-85428.49025758763</v>
+        <v>-85442.96100878924</v>
       </c>
       <c r="L6" t="n">
-        <v>-93781.08640251684</v>
+        <v>-93787.70978578004</v>
       </c>
       <c r="M6" t="n">
-        <v>-86210.59044742916</v>
+        <v>-86220.29906343341</v>
       </c>
       <c r="N6" t="n">
-        <v>-87215.4817872956</v>
+        <v>-87225.48930888566</v>
       </c>
       <c r="O6" t="n">
-        <v>-357196.7505207031</v>
+        <v>-357210.2080659933</v>
       </c>
       <c r="P6" t="n">
-        <v>-85311.0208810186</v>
+        <v>-85325.49163222045</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>340.11843830057</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="F2" t="n">
-        <v>340.2652750212814</v>
+        <v>340.2652750212816</v>
       </c>
       <c r="G2" t="n">
         <v>341.9887985493936</v>
       </c>
       <c r="H2" t="n">
-        <v>342.3016197277993</v>
+        <v>342.3016197277997</v>
       </c>
       <c r="I2" t="n">
+        <v>343.8082776867326</v>
+      </c>
+      <c r="J2" t="n">
         <v>343.8082776867327</v>
       </c>
-      <c r="J2" t="n">
-        <v>343.8082776867328</v>
-      </c>
       <c r="K2" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="L2" t="n">
         <v>344.9455408636351</v>
       </c>
       <c r="M2" t="n">
-        <v>344.6327196852293</v>
+        <v>344.6327196852291</v>
       </c>
       <c r="N2" t="n">
-        <v>344.4551017846439</v>
+        <v>344.4551017846442</v>
       </c>
       <c r="O2" t="n">
-        <v>343.9551144074438</v>
+        <v>343.9551144074439</v>
       </c>
       <c r="P2" t="n">
         <v>343.8082776867326</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>48.77422679554934</v>
+        <v>48.77422679554888</v>
       </c>
       <c r="F3" t="n">
-        <v>48.77422679554934</v>
+        <v>48.77422679554888</v>
       </c>
       <c r="G3" t="n">
-        <v>48.77422679554934</v>
+        <v>48.77422679554881</v>
       </c>
       <c r="H3" t="n">
-        <v>48.77422679554934</v>
+        <v>48.77422679554888</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77422679554934</v>
+        <v>48.77422679554888</v>
       </c>
       <c r="J3" t="n">
-        <v>48.77422679554934</v>
+        <v>48.77422679554888</v>
       </c>
       <c r="K3" t="n">
-        <v>48.77422679554934</v>
+        <v>48.77422679554888</v>
       </c>
       <c r="L3" t="n">
-        <v>48.77422679554934</v>
+        <v>48.77422679554888</v>
       </c>
       <c r="M3" t="n">
-        <v>48.77422679554934</v>
+        <v>48.77422679554888</v>
       </c>
       <c r="N3" t="n">
-        <v>48.77422679554934</v>
+        <v>48.77422679554888</v>
       </c>
       <c r="O3" t="n">
-        <v>48.77422679554934</v>
+        <v>48.77422679554888</v>
       </c>
       <c r="P3" t="n">
-        <v>48.77422679554935</v>
+        <v>48.77422679554903</v>
       </c>
     </row>
     <row r="4">
@@ -26796,37 +26796,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>7.439019878190955</v>
+        <v>7.439019878191345</v>
       </c>
       <c r="F4" t="n">
-        <v>8.012421037436187</v>
+        <v>8.012421037436354</v>
       </c>
       <c r="G4" t="n">
-        <v>16.18083491622565</v>
+        <v>16.18083491622559</v>
       </c>
       <c r="H4" t="n">
-        <v>18.57974169281238</v>
+        <v>18.57974169281315</v>
       </c>
       <c r="I4" t="n">
-        <v>31.20133358976494</v>
+        <v>31.201333589765</v>
       </c>
       <c r="J4" t="n">
-        <v>31.20133358976494</v>
+        <v>31.20133358976489</v>
       </c>
       <c r="K4" t="n">
-        <v>31.20133358976506</v>
+        <v>31.20133358976489</v>
       </c>
       <c r="L4" t="n">
-        <v>49.78107528257932</v>
+        <v>49.78107528257842</v>
       </c>
       <c r="M4" t="n">
-        <v>42.34205540438837</v>
+        <v>42.34205540438708</v>
       </c>
       <c r="N4" t="n">
-        <v>41.76865424514313</v>
+        <v>41.76865424514207</v>
       </c>
       <c r="O4" t="n">
-        <v>33.60024036635172</v>
+        <v>33.60024036635254</v>
       </c>
       <c r="P4" t="n">
         <v>31.201333589765</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>340.11843830057</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1468367207113488</v>
+        <v>0.1468367207114056</v>
       </c>
       <c r="G2" t="n">
-        <v>1.723523528112196</v>
+        <v>1.723523528112025</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3128211784057839</v>
+        <v>0.3128211784060682</v>
       </c>
       <c r="I2" t="n">
-        <v>1.506657958933317</v>
+        <v>1.506657958932919</v>
       </c>
       <c r="J2" t="n">
-        <v>340.1184383005701</v>
+        <v>340.1184383005703</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1468367207112145</v>
+        <v>0.1468367207113251</v>
       </c>
       <c r="L2" t="n">
-        <v>2.860786705014789</v>
+        <v>2.860786705014505</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.329040058347914</v>
+        <v>1.329040058348028</v>
       </c>
       <c r="O2" t="n">
-        <v>339.6184509233699</v>
+        <v>339.61845092337</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>48.77422679554934</v>
+        <v>48.77422679554888</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,19 +27018,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>7.439019878190955</v>
+        <v>7.439019878191345</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5734011592452326</v>
+        <v>0.5734011592450088</v>
       </c>
       <c r="G4" t="n">
-        <v>8.168413878789462</v>
+        <v>8.168413878789238</v>
       </c>
       <c r="H4" t="n">
-        <v>2.398906776586735</v>
+        <v>2.398906776587555</v>
       </c>
       <c r="I4" t="n">
-        <v>12.62159189695256</v>
+        <v>12.62159189695185</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27039,7 +27039,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.57974169281427</v>
+        <v>18.57974169281353</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>340.11843830057</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1468367207113488</v>
+        <v>0.1468367207114056</v>
       </c>
       <c r="L2" t="n">
-        <v>1.723523528112196</v>
+        <v>1.723523528112025</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3128211784057839</v>
+        <v>0.3128211784060682</v>
       </c>
       <c r="N2" t="n">
-        <v>1.506657958933317</v>
+        <v>1.506657958932919</v>
       </c>
       <c r="O2" t="n">
-        <v>340.1184383005701</v>
+        <v>340.1184383005703</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1468367207112145</v>
+        <v>0.1468367207113251</v>
       </c>
     </row>
     <row r="3">
@@ -27264,16 +27264,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>7.439019878190955</v>
+        <v>7.439019878191345</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5734011592452326</v>
+        <v>0.5734011592450088</v>
       </c>
       <c r="O4" t="n">
-        <v>8.168413878789462</v>
+        <v>8.168413878789238</v>
       </c>
       <c r="P4" t="n">
-        <v>2.398906776586735</v>
+        <v>2.398906776587555</v>
       </c>
     </row>
   </sheetData>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>340.11843830057</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="C11" t="n">
-        <v>329.9068139508214</v>
+        <v>329.9068139508218</v>
       </c>
       <c r="D11" t="n">
-        <v>314.0797831509884</v>
+        <v>314.0797831509888</v>
       </c>
       <c r="E11" t="n">
-        <v>340.11843830057</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="F11" t="n">
-        <v>340.11843830057</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="G11" t="n">
-        <v>340.11843830057</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="H11" t="n">
-        <v>340.11843830057</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="I11" t="n">
-        <v>335.0674560734901</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="J11" t="n">
-        <v>284.9967995320914</v>
+        <v>284.9967995320919</v>
       </c>
       <c r="K11" t="n">
-        <v>340.11843830057</v>
+        <v>332.7586844180977</v>
       </c>
       <c r="L11" t="n">
-        <v>340.11843830057</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="M11" t="n">
-        <v>340.11843830057</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="N11" t="n">
-        <v>337.8096666451764</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="O11" t="n">
-        <v>340.11843830057</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="P11" t="n">
-        <v>340.11843830057</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="Q11" t="n">
-        <v>340.0726042012855</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="R11" t="n">
-        <v>338.0096586506946</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="S11" t="n">
-        <v>283.4299048248382</v>
+        <v>290.8689247030296</v>
       </c>
       <c r="T11" t="n">
-        <v>232.9448502821422</v>
+        <v>232.9448502821426</v>
       </c>
       <c r="U11" t="n">
-        <v>255.4662198848374</v>
+        <v>255.4662198848378</v>
       </c>
       <c r="V11" t="n">
-        <v>315.6672020387153</v>
+        <v>313.2120218298311</v>
       </c>
       <c r="W11" t="n">
-        <v>324.150715057339</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X11" t="n">
-        <v>340.11843830057</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="Y11" t="n">
-        <v>340.11843830057</v>
+        <v>340.1184383005702</v>
       </c>
     </row>
     <row r="12">
@@ -28187,31 +28187,31 @@
         <v>155.5454465540429</v>
       </c>
       <c r="I12" t="n">
-        <v>158.111813911839</v>
+        <v>158.1118139118391</v>
       </c>
       <c r="J12" t="n">
-        <v>196.1993922068907</v>
+        <v>196.1993922068908</v>
       </c>
       <c r="K12" t="n">
-        <v>207.0515769377509</v>
+        <v>207.0515769377511</v>
       </c>
       <c r="L12" t="n">
-        <v>202.3719228261289</v>
+        <v>202.3719228261291</v>
       </c>
       <c r="M12" t="n">
-        <v>204.3858515197054</v>
+        <v>204.3858515197057</v>
       </c>
       <c r="N12" t="n">
-        <v>186.1447833170272</v>
+        <v>186.1447833170274</v>
       </c>
       <c r="O12" t="n">
-        <v>206.7579964582773</v>
+        <v>206.7579964582775</v>
       </c>
       <c r="P12" t="n">
-        <v>197.6750885933373</v>
+        <v>197.6750885933375</v>
       </c>
       <c r="Q12" t="n">
-        <v>214.0786366949013</v>
+        <v>214.0786366949015</v>
       </c>
       <c r="R12" t="n">
         <v>230.2155339931604</v>
@@ -28272,22 +28272,22 @@
         <v>200.1492457113304</v>
       </c>
       <c r="K13" t="n">
-        <v>199.4279442247082</v>
+        <v>199.4279442247083</v>
       </c>
       <c r="L13" t="n">
-        <v>206.1113087108743</v>
+        <v>206.1113087108744</v>
       </c>
       <c r="M13" t="n">
-        <v>211.9672842814868</v>
+        <v>211.9672842814869</v>
       </c>
       <c r="N13" t="n">
-        <v>194.0297218928976</v>
+        <v>194.0297218928978</v>
       </c>
       <c r="O13" t="n">
-        <v>212.5600441937986</v>
+        <v>212.5600441937987</v>
       </c>
       <c r="P13" t="n">
-        <v>213.1704276735044</v>
+        <v>213.1704276735045</v>
       </c>
       <c r="Q13" t="n">
         <v>238.8307194017216</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>340.2652750212814</v>
+        <v>340.2652750212816</v>
       </c>
       <c r="C14" t="n">
-        <v>330.4802151100666</v>
+        <v>330.4802151100668</v>
       </c>
       <c r="D14" t="n">
-        <v>314.6531843102336</v>
+        <v>314.6531843102338</v>
       </c>
       <c r="E14" t="n">
-        <v>340.2652750212814</v>
+        <v>340.2652750212816</v>
       </c>
       <c r="F14" t="n">
-        <v>340.2652750212814</v>
+        <v>340.2652750212816</v>
       </c>
       <c r="G14" t="n">
-        <v>340.2652750212814</v>
+        <v>340.2652750212816</v>
       </c>
       <c r="H14" t="n">
-        <v>340.2652750212814</v>
+        <v>340.2652750212816</v>
       </c>
       <c r="I14" t="n">
-        <v>340.2652750212814</v>
+        <v>339.5912145356561</v>
       </c>
       <c r="J14" t="n">
-        <v>282.5755057538576</v>
+        <v>285.5702006913369</v>
       </c>
       <c r="K14" t="n">
-        <v>340.2652750212814</v>
+        <v>332.7042409059053</v>
       </c>
       <c r="L14" t="n">
-        <v>340.2652750212814</v>
+        <v>340.2652750212816</v>
       </c>
       <c r="M14" t="n">
-        <v>340.2652750212814</v>
+        <v>340.2652750212816</v>
       </c>
       <c r="N14" t="n">
-        <v>340.2652750212814</v>
+        <v>340.2652750212816</v>
       </c>
       <c r="O14" t="n">
-        <v>340.2652750212814</v>
+        <v>340.2652750212816</v>
       </c>
       <c r="P14" t="n">
-        <v>340.2652750212814</v>
+        <v>340.2652750212816</v>
       </c>
       <c r="Q14" t="n">
-        <v>340.2652750212814</v>
+        <v>340.0726042012856</v>
       </c>
       <c r="R14" t="n">
-        <v>340.2652750212814</v>
+        <v>338.0096586506947</v>
       </c>
       <c r="S14" t="n">
-        <v>291.4423258622743</v>
+        <v>291.4423258622746</v>
       </c>
       <c r="T14" t="n">
         <v>225.5058304039513</v>
       </c>
       <c r="U14" t="n">
-        <v>256.0396210440827</v>
+        <v>255.7158868607521</v>
       </c>
       <c r="V14" t="n">
-        <v>316.2406031979606</v>
+        <v>316.2406031979608</v>
       </c>
       <c r="W14" t="n">
-        <v>317.0122616388729</v>
+        <v>325.0246826763093</v>
       </c>
       <c r="X14" t="n">
-        <v>340.2652750212814</v>
+        <v>340.2652750212816</v>
       </c>
       <c r="Y14" t="n">
-        <v>340.2652750212814</v>
+        <v>340.2652750212816</v>
       </c>
     </row>
     <row r="15">
@@ -28427,28 +28427,28 @@
         <v>158.1118139118391</v>
       </c>
       <c r="J15" t="n">
-        <v>196.1993922068907</v>
+        <v>196.1993922068908</v>
       </c>
       <c r="K15" t="n">
-        <v>207.0515769377509</v>
+        <v>207.0515769377511</v>
       </c>
       <c r="L15" t="n">
-        <v>202.3719228261289</v>
+        <v>202.3719228261291</v>
       </c>
       <c r="M15" t="n">
-        <v>204.3858515197054</v>
+        <v>204.3858515197057</v>
       </c>
       <c r="N15" t="n">
-        <v>186.1447833170272</v>
+        <v>186.1447833170274</v>
       </c>
       <c r="O15" t="n">
-        <v>206.7579964582773</v>
+        <v>206.7579964582775</v>
       </c>
       <c r="P15" t="n">
-        <v>197.6750885933373</v>
+        <v>197.6750885933375</v>
       </c>
       <c r="Q15" t="n">
-        <v>214.0786366949013</v>
+        <v>214.0786366949015</v>
       </c>
       <c r="R15" t="n">
         <v>230.2155339931604</v>
@@ -28509,22 +28509,22 @@
         <v>200.1492457113304</v>
       </c>
       <c r="K16" t="n">
-        <v>199.4279442247082</v>
+        <v>199.4279442247083</v>
       </c>
       <c r="L16" t="n">
-        <v>206.1113087108743</v>
+        <v>206.1113087108744</v>
       </c>
       <c r="M16" t="n">
-        <v>211.9672842814868</v>
+        <v>211.9672842814869</v>
       </c>
       <c r="N16" t="n">
-        <v>194.0297218928976</v>
+        <v>194.0297218928978</v>
       </c>
       <c r="O16" t="n">
-        <v>212.5600441937986</v>
+        <v>212.5600441937987</v>
       </c>
       <c r="P16" t="n">
-        <v>213.1704276735044</v>
+        <v>213.1704276735045</v>
       </c>
       <c r="Q16" t="n">
         <v>238.8307194017216</v>
@@ -28564,10 +28564,10 @@
         <v>341.9887985493936</v>
       </c>
       <c r="C17" t="n">
-        <v>338.6486289888561</v>
+        <v>335.2222921688188</v>
       </c>
       <c r="D17" t="n">
-        <v>319.3952613689855</v>
+        <v>322.821598189023</v>
       </c>
       <c r="E17" t="n">
         <v>341.9887985493936</v>
@@ -28585,19 +28585,19 @@
         <v>341.9887985493936</v>
       </c>
       <c r="J17" t="n">
-        <v>293.7386145701261</v>
+        <v>277.5577796539006</v>
       </c>
       <c r="K17" t="n">
-        <v>332.7042409059051</v>
+        <v>341.9887985493936</v>
       </c>
       <c r="L17" t="n">
         <v>341.9887985493936</v>
       </c>
       <c r="M17" t="n">
-        <v>341.9887985493936</v>
+        <v>339.8831719056191</v>
       </c>
       <c r="N17" t="n">
-        <v>337.8096666451764</v>
+        <v>337.8096666451768</v>
       </c>
       <c r="O17" t="n">
         <v>341.9887985493936</v>
@@ -28606,7 +28606,7 @@
         <v>341.9887985493936</v>
       </c>
       <c r="Q17" t="n">
-        <v>341.9887985493936</v>
+        <v>340.0726042012857</v>
       </c>
       <c r="R17" t="n">
         <v>341.9887985493936</v>
@@ -28615,13 +28615,13 @@
         <v>299.6107397410638</v>
       </c>
       <c r="T17" t="n">
-        <v>241.6866653201769</v>
+        <v>234.948302705489</v>
       </c>
       <c r="U17" t="n">
-        <v>262.7324089597886</v>
+        <v>264.2080349228721</v>
       </c>
       <c r="V17" t="n">
-        <v>308.2281821605244</v>
+        <v>324.40901707675</v>
       </c>
       <c r="W17" t="n">
         <v>317.0122616388729</v>
@@ -28664,28 +28664,28 @@
         <v>158.1118139118391</v>
       </c>
       <c r="J18" t="n">
-        <v>196.1993922068907</v>
+        <v>196.1993922068908</v>
       </c>
       <c r="K18" t="n">
-        <v>207.0515769377509</v>
+        <v>207.0515769377511</v>
       </c>
       <c r="L18" t="n">
-        <v>202.3719228261289</v>
+        <v>202.3719228261291</v>
       </c>
       <c r="M18" t="n">
-        <v>204.3858515197054</v>
+        <v>204.3858515197057</v>
       </c>
       <c r="N18" t="n">
-        <v>186.1447833170272</v>
+        <v>186.1447833170275</v>
       </c>
       <c r="O18" t="n">
-        <v>206.7579964582773</v>
+        <v>206.7579964582775</v>
       </c>
       <c r="P18" t="n">
-        <v>197.6750885933373</v>
+        <v>197.6750885933375</v>
       </c>
       <c r="Q18" t="n">
-        <v>214.0786366949013</v>
+        <v>214.0786366949015</v>
       </c>
       <c r="R18" t="n">
         <v>230.2155339931604</v>
@@ -28746,22 +28746,22 @@
         <v>200.1492457113304</v>
       </c>
       <c r="K19" t="n">
-        <v>199.4279442247082</v>
+        <v>199.4279442247083</v>
       </c>
       <c r="L19" t="n">
-        <v>206.1113087108743</v>
+        <v>206.1113087108744</v>
       </c>
       <c r="M19" t="n">
-        <v>211.9672842814868</v>
+        <v>211.9672842814869</v>
       </c>
       <c r="N19" t="n">
-        <v>194.0297218928976</v>
+        <v>194.0297218928978</v>
       </c>
       <c r="O19" t="n">
-        <v>212.5600441937986</v>
+        <v>212.5600441937987</v>
       </c>
       <c r="P19" t="n">
-        <v>213.1704276735044</v>
+        <v>213.1704276735045</v>
       </c>
       <c r="Q19" t="n">
         <v>238.8307194017216</v>
@@ -28798,76 +28798,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>342.3016197277993</v>
+        <v>342.3016197277997</v>
       </c>
       <c r="C20" t="n">
-        <v>341.0475357654428</v>
+        <v>332.4767955860448</v>
       </c>
       <c r="D20" t="n">
-        <v>325.2205049656098</v>
+        <v>325.2205049656106</v>
       </c>
       <c r="E20" t="n">
-        <v>342.3016197277993</v>
+        <v>342.3016197277997</v>
       </c>
       <c r="F20" t="n">
-        <v>342.3016197277993</v>
+        <v>342.3016197277997</v>
       </c>
       <c r="G20" t="n">
-        <v>342.3016197277993</v>
+        <v>342.3016197277997</v>
       </c>
       <c r="H20" t="n">
-        <v>342.3016197277993</v>
+        <v>342.3016197277997</v>
       </c>
       <c r="I20" t="n">
-        <v>342.3016197277993</v>
+        <v>334.6856501706846</v>
       </c>
       <c r="J20" t="n">
-        <v>296.1375213467128</v>
+        <v>277.5577796539006</v>
       </c>
       <c r="K20" t="n">
-        <v>342.3016197277993</v>
+        <v>342.3016197277997</v>
       </c>
       <c r="L20" t="n">
-        <v>342.3016197277993</v>
+        <v>342.3016197277997</v>
       </c>
       <c r="M20" t="n">
-        <v>342.3016197277993</v>
+        <v>342.3016197277997</v>
       </c>
       <c r="N20" t="n">
-        <v>342.3016197277993</v>
+        <v>342.3016197277997</v>
       </c>
       <c r="O20" t="n">
-        <v>342.3016197277993</v>
+        <v>342.3016197277997</v>
       </c>
       <c r="P20" t="n">
-        <v>342.3016197277993</v>
+        <v>342.3016197277997</v>
       </c>
       <c r="Q20" t="n">
-        <v>342.3016197277993</v>
+        <v>342.3016197277997</v>
       </c>
       <c r="R20" t="n">
-        <v>342.3016197277993</v>
+        <v>338.0096586506947</v>
       </c>
       <c r="S20" t="n">
-        <v>283.4299048248382</v>
+        <v>302.0096465176514</v>
       </c>
       <c r="T20" t="n">
-        <v>244.0855720967636</v>
+        <v>244.0855720967644</v>
       </c>
       <c r="U20" t="n">
         <v>248.0272000066465</v>
       </c>
       <c r="V20" t="n">
-        <v>308.2281821605244</v>
+        <v>326.8079238533376</v>
       </c>
       <c r="W20" t="n">
-        <v>326.9036897614179</v>
+        <v>328.802618882224</v>
       </c>
       <c r="X20" t="n">
-        <v>342.3016197277993</v>
+        <v>342.3016197277997</v>
       </c>
       <c r="Y20" t="n">
-        <v>342.3016197277993</v>
+        <v>342.3016197277997</v>
       </c>
     </row>
     <row r="21">
@@ -28901,28 +28901,28 @@
         <v>158.1118139118391</v>
       </c>
       <c r="J21" t="n">
-        <v>196.1993922068907</v>
+        <v>196.1993922068908</v>
       </c>
       <c r="K21" t="n">
-        <v>207.0515769377509</v>
+        <v>207.0515769377511</v>
       </c>
       <c r="L21" t="n">
-        <v>202.3719228261289</v>
+        <v>202.3719228261291</v>
       </c>
       <c r="M21" t="n">
-        <v>204.3858515197054</v>
+        <v>204.3858515197057</v>
       </c>
       <c r="N21" t="n">
-        <v>186.1447833170272</v>
+        <v>186.1447833170274</v>
       </c>
       <c r="O21" t="n">
-        <v>206.7579964582773</v>
+        <v>206.7579964582775</v>
       </c>
       <c r="P21" t="n">
-        <v>197.6750885933373</v>
+        <v>197.6750885933375</v>
       </c>
       <c r="Q21" t="n">
-        <v>214.0786366949013</v>
+        <v>214.0786366949015</v>
       </c>
       <c r="R21" t="n">
         <v>230.2155339931604</v>
@@ -28983,22 +28983,22 @@
         <v>200.1492457113304</v>
       </c>
       <c r="K22" t="n">
-        <v>199.4279442247082</v>
+        <v>199.4279442247083</v>
       </c>
       <c r="L22" t="n">
-        <v>206.1113087108743</v>
+        <v>206.1113087108744</v>
       </c>
       <c r="M22" t="n">
-        <v>211.9672842814868</v>
+        <v>211.9672842814869</v>
       </c>
       <c r="N22" t="n">
-        <v>194.0297218928976</v>
+        <v>194.0297218928978</v>
       </c>
       <c r="O22" t="n">
-        <v>212.5600441937986</v>
+        <v>212.5600441937987</v>
       </c>
       <c r="P22" t="n">
-        <v>213.1704276735044</v>
+        <v>213.1704276735045</v>
       </c>
       <c r="Q22" t="n">
         <v>238.8307194017216</v>
@@ -29035,76 +29035,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>343.8082776867327</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="C23" t="n">
-        <v>343.8082776867327</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="D23" t="n">
         <v>337.8420968625624</v>
       </c>
       <c r="E23" t="n">
-        <v>343.8082776867327</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="F23" t="n">
-        <v>343.8082776867327</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="G23" t="n">
-        <v>343.8082776867327</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="H23" t="n">
-        <v>343.8082776867327</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="I23" t="n">
-        <v>343.8082776867327</v>
+        <v>334.2061622639936</v>
       </c>
       <c r="J23" t="n">
-        <v>308.7591132436654</v>
+        <v>277.5577796539006</v>
       </c>
       <c r="K23" t="n">
-        <v>343.8082776867327</v>
+        <v>342.1336602215476</v>
       </c>
       <c r="L23" t="n">
-        <v>343.8082776867327</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="M23" t="n">
-        <v>343.8082776867327</v>
+        <v>339.883171905619</v>
       </c>
       <c r="N23" t="n">
-        <v>337.8096666451764</v>
+        <v>337.8096666451767</v>
       </c>
       <c r="O23" t="n">
-        <v>343.8082776867327</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="P23" t="n">
-        <v>343.8082776867327</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="Q23" t="n">
-        <v>340.0726042012855</v>
+        <v>340.0726042012856</v>
       </c>
       <c r="R23" t="n">
-        <v>343.8082776867327</v>
+        <v>338.0096586506947</v>
       </c>
       <c r="S23" t="n">
-        <v>283.4299048248382</v>
+        <v>314.6312384146032</v>
       </c>
       <c r="T23" t="n">
-        <v>256.7071639937162</v>
+        <v>256.7071639937163</v>
       </c>
       <c r="U23" t="n">
-        <v>248.0272000066465</v>
+        <v>250.1838971784528</v>
       </c>
       <c r="V23" t="n">
         <v>308.2281821605244</v>
       </c>
       <c r="W23" t="n">
-        <v>327.3041554792368</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="X23" t="n">
-        <v>341.4686393609607</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="Y23" t="n">
-        <v>343.8082776867327</v>
+        <v>343.8082776867326</v>
       </c>
     </row>
     <row r="24">
@@ -29138,28 +29138,28 @@
         <v>158.1118139118391</v>
       </c>
       <c r="J24" t="n">
-        <v>196.1993922068907</v>
+        <v>196.1993922068908</v>
       </c>
       <c r="K24" t="n">
-        <v>207.0515769377509</v>
+        <v>207.0515769377511</v>
       </c>
       <c r="L24" t="n">
-        <v>202.3719228261289</v>
+        <v>202.3719228261291</v>
       </c>
       <c r="M24" t="n">
-        <v>204.3858515197054</v>
+        <v>204.3858515197057</v>
       </c>
       <c r="N24" t="n">
-        <v>186.1447833170272</v>
+        <v>186.1447833170274</v>
       </c>
       <c r="O24" t="n">
-        <v>206.7579964582773</v>
+        <v>206.7579964582775</v>
       </c>
       <c r="P24" t="n">
-        <v>197.6750885933373</v>
+        <v>197.6750885933375</v>
       </c>
       <c r="Q24" t="n">
-        <v>214.0786366949013</v>
+        <v>214.0786366949015</v>
       </c>
       <c r="R24" t="n">
         <v>230.2155339931604</v>
@@ -29220,22 +29220,22 @@
         <v>200.1492457113304</v>
       </c>
       <c r="K25" t="n">
-        <v>199.4279442247082</v>
+        <v>199.4279442247083</v>
       </c>
       <c r="L25" t="n">
-        <v>206.1113087108743</v>
+        <v>206.1113087108744</v>
       </c>
       <c r="M25" t="n">
-        <v>211.9672842814868</v>
+        <v>211.9672842814869</v>
       </c>
       <c r="N25" t="n">
-        <v>194.0297218928976</v>
+        <v>194.0297218928978</v>
       </c>
       <c r="O25" t="n">
-        <v>212.5600441937986</v>
+        <v>212.5600441937987</v>
       </c>
       <c r="P25" t="n">
-        <v>213.1704276735044</v>
+        <v>213.1704276735045</v>
       </c>
       <c r="Q25" t="n">
         <v>238.8307194017216</v>
@@ -29272,55 +29272,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>343.8082776867328</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="C26" t="n">
-        <v>343.8082776867328</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="D26" t="n">
-        <v>307.9924411714901</v>
+        <v>337.8420968625623</v>
       </c>
       <c r="E26" t="n">
-        <v>343.8082776867328</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="F26" t="n">
-        <v>343.8082776867328</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="G26" t="n">
-        <v>343.8082776867328</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="H26" t="n">
-        <v>343.8082776867328</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="I26" t="n">
-        <v>343.8082776867328</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="J26" t="n">
-        <v>308.7591132436654</v>
+        <v>286.879787422316</v>
       </c>
       <c r="K26" t="n">
-        <v>343.8082776867328</v>
+        <v>332.7042409059053</v>
       </c>
       <c r="L26" t="n">
-        <v>343.8082776867328</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="M26" t="n">
-        <v>339.8831719056187</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="N26" t="n">
-        <v>337.8096666451764</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="O26" t="n">
-        <v>343.8082776867328</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="P26" t="n">
-        <v>343.8082776867328</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="Q26" t="n">
-        <v>343.8082776867328</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="R26" t="n">
-        <v>343.8082776867328</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="S26" t="n">
         <v>283.4299048248382</v>
@@ -29329,19 +29329,19 @@
         <v>225.5058304039513</v>
       </c>
       <c r="U26" t="n">
-        <v>279.2285335964115</v>
+        <v>279.2285335964114</v>
       </c>
       <c r="V26" t="n">
         <v>339.4295157502893</v>
       </c>
       <c r="W26" t="n">
-        <v>323.8022715504342</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X26" t="n">
-        <v>343.8082776867328</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="Y26" t="n">
-        <v>343.8082776867328</v>
+        <v>343.8082776867327</v>
       </c>
     </row>
     <row r="27">
@@ -29372,31 +29372,31 @@
         <v>155.5454465540429</v>
       </c>
       <c r="I27" t="n">
-        <v>158.111813911839</v>
+        <v>158.1118139118391</v>
       </c>
       <c r="J27" t="n">
-        <v>196.1993922068907</v>
+        <v>196.1993922068908</v>
       </c>
       <c r="K27" t="n">
-        <v>207.0515769377509</v>
+        <v>207.0515769377511</v>
       </c>
       <c r="L27" t="n">
-        <v>202.3719228261289</v>
+        <v>202.3719228261291</v>
       </c>
       <c r="M27" t="n">
-        <v>204.3858515197054</v>
+        <v>204.3858515197057</v>
       </c>
       <c r="N27" t="n">
-        <v>186.1447833170272</v>
+        <v>186.1447833170274</v>
       </c>
       <c r="O27" t="n">
-        <v>206.7579964582773</v>
+        <v>206.7579964582775</v>
       </c>
       <c r="P27" t="n">
-        <v>197.6750885933373</v>
+        <v>197.6750885933375</v>
       </c>
       <c r="Q27" t="n">
-        <v>214.0786366949013</v>
+        <v>214.0786366949015</v>
       </c>
       <c r="R27" t="n">
         <v>230.2155339931604</v>
@@ -29457,22 +29457,22 @@
         <v>200.1492457113304</v>
       </c>
       <c r="K28" t="n">
-        <v>199.4279442247082</v>
+        <v>199.4279442247083</v>
       </c>
       <c r="L28" t="n">
-        <v>206.1113087108743</v>
+        <v>206.1113087108744</v>
       </c>
       <c r="M28" t="n">
-        <v>211.9672842814868</v>
+        <v>211.9672842814869</v>
       </c>
       <c r="N28" t="n">
-        <v>194.0297218928976</v>
+        <v>194.0297218928978</v>
       </c>
       <c r="O28" t="n">
-        <v>212.5600441937986</v>
+        <v>212.5600441937987</v>
       </c>
       <c r="P28" t="n">
-        <v>213.1704276735044</v>
+        <v>213.1704276735045</v>
       </c>
       <c r="Q28" t="n">
         <v>238.8307194017216</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="C29" t="n">
-        <v>343.8082776867325</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D29" t="n">
-        <v>337.8420968625625</v>
+        <v>329.332924785593</v>
       </c>
       <c r="E29" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="F29" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="G29" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="H29" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="I29" t="n">
-        <v>343.8082776867325</v>
+        <v>334.2061622639936</v>
       </c>
       <c r="J29" t="n">
-        <v>308.7591132436655</v>
+        <v>286.0973971641072</v>
       </c>
       <c r="K29" t="n">
-        <v>343.8082776867325</v>
+        <v>332.7042409059053</v>
       </c>
       <c r="L29" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="M29" t="n">
-        <v>339.8831719056187</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="N29" t="n">
-        <v>343.8082776867325</v>
+        <v>337.8096666451767</v>
       </c>
       <c r="O29" t="n">
-        <v>340.8727754496937</v>
+        <v>340.872775449694</v>
       </c>
       <c r="P29" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="Q29" t="n">
-        <v>340.0726042012855</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="R29" t="n">
-        <v>343.8082776867325</v>
+        <v>338.0096586506947</v>
       </c>
       <c r="S29" t="n">
-        <v>283.4299048248382</v>
+        <v>314.6312384146031</v>
       </c>
       <c r="T29" t="n">
-        <v>256.7071639937163</v>
+        <v>225.5058304039513</v>
       </c>
       <c r="U29" t="n">
-        <v>259.1810908236054</v>
+        <v>279.2285335964114</v>
       </c>
       <c r="V29" t="n">
-        <v>308.2281821605244</v>
+        <v>339.4295157502893</v>
       </c>
       <c r="W29" t="n">
-        <v>317.0122616388729</v>
+        <v>340.7778217357582</v>
       </c>
       <c r="X29" t="n">
-        <v>341.4686393609607</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="Y29" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867327</v>
       </c>
     </row>
     <row r="30">
@@ -29612,28 +29612,28 @@
         <v>158.1118139118391</v>
       </c>
       <c r="J30" t="n">
-        <v>196.1993922068907</v>
+        <v>196.1993922068908</v>
       </c>
       <c r="K30" t="n">
-        <v>207.0515769377509</v>
+        <v>207.0515769377511</v>
       </c>
       <c r="L30" t="n">
-        <v>202.3719228261289</v>
+        <v>202.3719228261291</v>
       </c>
       <c r="M30" t="n">
-        <v>204.3858515197054</v>
+        <v>204.3858515197057</v>
       </c>
       <c r="N30" t="n">
-        <v>186.1447833170272</v>
+        <v>186.1447833170274</v>
       </c>
       <c r="O30" t="n">
-        <v>206.7579964582773</v>
+        <v>206.7579964582775</v>
       </c>
       <c r="P30" t="n">
-        <v>197.6750885933373</v>
+        <v>197.6750885933375</v>
       </c>
       <c r="Q30" t="n">
-        <v>214.0786366949013</v>
+        <v>214.0786366949015</v>
       </c>
       <c r="R30" t="n">
         <v>230.2155339931604</v>
@@ -29694,22 +29694,22 @@
         <v>200.1492457113304</v>
       </c>
       <c r="K31" t="n">
-        <v>199.4279442247082</v>
+        <v>199.4279442247083</v>
       </c>
       <c r="L31" t="n">
-        <v>206.1113087108743</v>
+        <v>206.1113087108744</v>
       </c>
       <c r="M31" t="n">
-        <v>211.9672842814868</v>
+        <v>211.9672842814869</v>
       </c>
       <c r="N31" t="n">
-        <v>194.0297218928976</v>
+        <v>194.0297218928978</v>
       </c>
       <c r="O31" t="n">
-        <v>212.5600441937986</v>
+        <v>212.5600441937987</v>
       </c>
       <c r="P31" t="n">
-        <v>213.1704276735044</v>
+        <v>213.1704276735045</v>
       </c>
       <c r="Q31" t="n">
         <v>238.8307194017216</v>
@@ -29752,7 +29752,7 @@
         <v>344.9455408636351</v>
       </c>
       <c r="D32" t="n">
-        <v>327.9669000982458</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E32" t="n">
         <v>344.9455408636351</v>
@@ -29770,10 +29770,10 @@
         <v>344.9455408636351</v>
       </c>
       <c r="J32" t="n">
-        <v>327.3388549364797</v>
+        <v>277.5577796539006</v>
       </c>
       <c r="K32" t="n">
-        <v>344.9455408636351</v>
+        <v>332.7042409059053</v>
       </c>
       <c r="L32" t="n">
         <v>344.9455408636351</v>
@@ -29782,37 +29782,37 @@
         <v>344.9455408636351</v>
       </c>
       <c r="N32" t="n">
-        <v>344.9455408636351</v>
+        <v>337.8096666451767</v>
       </c>
       <c r="O32" t="n">
-        <v>344.9455408636351</v>
+        <v>340.872775449694</v>
       </c>
       <c r="P32" t="n">
         <v>344.9455408636351</v>
       </c>
       <c r="Q32" t="n">
-        <v>340.0726042012855</v>
+        <v>340.0726042012856</v>
       </c>
       <c r="R32" t="n">
-        <v>344.9455408636351</v>
+        <v>338.0096586506947</v>
       </c>
       <c r="S32" t="n">
-        <v>333.2109801074175</v>
+        <v>316.7953993053877</v>
       </c>
       <c r="T32" t="n">
-        <v>225.5058304039513</v>
+        <v>275.2869056865297</v>
       </c>
       <c r="U32" t="n">
         <v>248.0272000066465</v>
       </c>
       <c r="V32" t="n">
-        <v>308.2281821605244</v>
+        <v>344.9455408636351</v>
       </c>
       <c r="W32" t="n">
-        <v>317.0122616388729</v>
+        <v>344.9455408636351</v>
       </c>
       <c r="X32" t="n">
-        <v>341.4686393609607</v>
+        <v>344.9455408636351</v>
       </c>
       <c r="Y32" t="n">
         <v>344.9455408636351</v>
@@ -29849,28 +29849,28 @@
         <v>158.1118139118391</v>
       </c>
       <c r="J33" t="n">
-        <v>196.1993922068907</v>
+        <v>196.1993922068908</v>
       </c>
       <c r="K33" t="n">
-        <v>207.0515769377509</v>
+        <v>207.0515769377511</v>
       </c>
       <c r="L33" t="n">
-        <v>202.3719228261289</v>
+        <v>202.3719228261291</v>
       </c>
       <c r="M33" t="n">
-        <v>204.3858515197054</v>
+        <v>204.3858515197057</v>
       </c>
       <c r="N33" t="n">
-        <v>186.1447833170272</v>
+        <v>186.1447833170274</v>
       </c>
       <c r="O33" t="n">
-        <v>206.7579964582773</v>
+        <v>206.7579964582775</v>
       </c>
       <c r="P33" t="n">
-        <v>197.6750885933373</v>
+        <v>197.6750885933375</v>
       </c>
       <c r="Q33" t="n">
-        <v>214.0786366949013</v>
+        <v>214.0786366949015</v>
       </c>
       <c r="R33" t="n">
         <v>230.2155339931604</v>
@@ -29931,22 +29931,22 @@
         <v>200.1492457113304</v>
       </c>
       <c r="K34" t="n">
-        <v>199.4279442247082</v>
+        <v>199.4279442247083</v>
       </c>
       <c r="L34" t="n">
-        <v>206.1113087108743</v>
+        <v>206.1113087108744</v>
       </c>
       <c r="M34" t="n">
-        <v>211.9672842814868</v>
+        <v>211.9672842814869</v>
       </c>
       <c r="N34" t="n">
-        <v>194.0297218928976</v>
+        <v>194.0297218928978</v>
       </c>
       <c r="O34" t="n">
-        <v>212.5600441937986</v>
+        <v>212.5600441937987</v>
       </c>
       <c r="P34" t="n">
-        <v>213.1704276735044</v>
+        <v>213.1704276735045</v>
       </c>
       <c r="Q34" t="n">
         <v>238.8307194017216</v>
@@ -29983,58 +29983,58 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>344.6327196852293</v>
+        <v>344.6327196852291</v>
       </c>
       <c r="C35" t="n">
-        <v>344.6327196852293</v>
+        <v>344.6327196852291</v>
       </c>
       <c r="D35" t="n">
-        <v>344.6327196852293</v>
+        <v>331.5663132418891</v>
       </c>
       <c r="E35" t="n">
-        <v>344.6327196852293</v>
+        <v>344.6327196852291</v>
       </c>
       <c r="F35" t="n">
-        <v>344.6327196852293</v>
+        <v>344.6327196852291</v>
       </c>
       <c r="G35" t="n">
-        <v>344.6327196852293</v>
+        <v>344.6327196852291</v>
       </c>
       <c r="H35" t="n">
-        <v>344.6327196852293</v>
+        <v>344.6327196852291</v>
       </c>
       <c r="I35" t="n">
-        <v>344.6327196852293</v>
+        <v>341.9045982636437</v>
       </c>
       <c r="J35" t="n">
-        <v>318.5942325744185</v>
+        <v>277.5577796539006</v>
       </c>
       <c r="K35" t="n">
-        <v>344.6327196852293</v>
+        <v>332.7042409059053</v>
       </c>
       <c r="L35" t="n">
-        <v>344.6327196852293</v>
+        <v>344.6327196852291</v>
       </c>
       <c r="M35" t="n">
-        <v>344.6327196852293</v>
+        <v>344.6327196852291</v>
       </c>
       <c r="N35" t="n">
-        <v>344.6327196852293</v>
+        <v>337.8096666451767</v>
       </c>
       <c r="O35" t="n">
-        <v>344.6327196852293</v>
+        <v>344.6327196852291</v>
       </c>
       <c r="P35" t="n">
-        <v>344.6327196852293</v>
+        <v>344.6327196852291</v>
       </c>
       <c r="Q35" t="n">
-        <v>340.0726042012855</v>
+        <v>340.0726042012856</v>
       </c>
       <c r="R35" t="n">
-        <v>344.6327196852293</v>
+        <v>344.6327196852291</v>
       </c>
       <c r="S35" t="n">
-        <v>283.4299048248382</v>
+        <v>325.7719602292253</v>
       </c>
       <c r="T35" t="n">
         <v>225.5058304039513</v>
@@ -30043,16 +30043,16 @@
         <v>248.0272000066465</v>
       </c>
       <c r="V35" t="n">
-        <v>308.2281821605244</v>
+        <v>344.6327196852291</v>
       </c>
       <c r="W35" t="n">
-        <v>344.6327196852293</v>
+        <v>344.6327196852291</v>
       </c>
       <c r="X35" t="n">
-        <v>344.6327196852293</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y35" t="n">
-        <v>344.6327196852293</v>
+        <v>344.6327196852291</v>
       </c>
     </row>
     <row r="36">
@@ -30086,28 +30086,28 @@
         <v>158.1118139118391</v>
       </c>
       <c r="J36" t="n">
-        <v>196.1993922068907</v>
+        <v>196.1993922068908</v>
       </c>
       <c r="K36" t="n">
-        <v>207.0515769377509</v>
+        <v>207.0515769377511</v>
       </c>
       <c r="L36" t="n">
-        <v>202.3719228261289</v>
+        <v>202.3719228261291</v>
       </c>
       <c r="M36" t="n">
-        <v>204.3858515197054</v>
+        <v>204.3858515197057</v>
       </c>
       <c r="N36" t="n">
-        <v>186.1447833170272</v>
+        <v>186.1447833170274</v>
       </c>
       <c r="O36" t="n">
-        <v>206.7579964582773</v>
+        <v>206.7579964582775</v>
       </c>
       <c r="P36" t="n">
-        <v>197.6750885933373</v>
+        <v>197.6750885933375</v>
       </c>
       <c r="Q36" t="n">
-        <v>214.0786366949013</v>
+        <v>214.0786366949015</v>
       </c>
       <c r="R36" t="n">
         <v>230.2155339931604</v>
@@ -30168,22 +30168,22 @@
         <v>200.1492457113304</v>
       </c>
       <c r="K37" t="n">
-        <v>199.4279442247082</v>
+        <v>199.4279442247083</v>
       </c>
       <c r="L37" t="n">
-        <v>206.1113087108743</v>
+        <v>206.1113087108744</v>
       </c>
       <c r="M37" t="n">
-        <v>211.9672842814868</v>
+        <v>211.9672842814869</v>
       </c>
       <c r="N37" t="n">
-        <v>194.0297218928976</v>
+        <v>194.0297218928978</v>
       </c>
       <c r="O37" t="n">
-        <v>212.5600441937986</v>
+        <v>212.5600441937987</v>
       </c>
       <c r="P37" t="n">
-        <v>213.1704276735044</v>
+        <v>213.1704276735045</v>
       </c>
       <c r="Q37" t="n">
         <v>238.8307194017216</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>344.4551017846439</v>
+        <v>344.4551017846442</v>
       </c>
       <c r="C38" t="n">
-        <v>344.4551017846439</v>
+        <v>344.4551017846442</v>
       </c>
       <c r="D38" t="n">
-        <v>344.0203028359607</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E38" t="n">
-        <v>344.4551017846439</v>
+        <v>344.4551017846442</v>
       </c>
       <c r="F38" t="n">
-        <v>344.4551017846439</v>
+        <v>344.4551017846442</v>
       </c>
       <c r="G38" t="n">
-        <v>344.4551017846439</v>
+        <v>344.4551017846442</v>
       </c>
       <c r="H38" t="n">
-        <v>344.4551017846439</v>
+        <v>344.4551017846442</v>
       </c>
       <c r="I38" t="n">
-        <v>344.4551017846439</v>
+        <v>344.4551017846442</v>
       </c>
       <c r="J38" t="n">
-        <v>319.3264338990435</v>
+        <v>319.3264338990426</v>
       </c>
       <c r="K38" t="n">
-        <v>344.4551017846439</v>
+        <v>332.7042409059053</v>
       </c>
       <c r="L38" t="n">
-        <v>344.4551017846439</v>
+        <v>344.4551017846442</v>
       </c>
       <c r="M38" t="n">
-        <v>344.4551017846439</v>
+        <v>344.4551017846442</v>
       </c>
       <c r="N38" t="n">
-        <v>344.4551017846439</v>
+        <v>341.0733602169852</v>
       </c>
       <c r="O38" t="n">
-        <v>344.4551017846439</v>
+        <v>340.872775449694</v>
       </c>
       <c r="P38" t="n">
-        <v>344.4551017846439</v>
+        <v>344.4551017846442</v>
       </c>
       <c r="Q38" t="n">
-        <v>344.4551017846439</v>
+        <v>344.4551017846442</v>
       </c>
       <c r="R38" t="n">
-        <v>344.4551017846439</v>
+        <v>344.4551017846442</v>
       </c>
       <c r="S38" t="n">
-        <v>283.4299048248382</v>
+        <v>325.1985590699803</v>
       </c>
       <c r="T38" t="n">
         <v>225.5058304039513</v>
       </c>
       <c r="U38" t="n">
-        <v>248.0272000066465</v>
+        <v>289.7958542517886</v>
       </c>
       <c r="V38" t="n">
         <v>308.2281821605244</v>
       </c>
       <c r="W38" t="n">
-        <v>344.4551017846439</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X38" t="n">
         <v>341.4686393609607</v>
       </c>
       <c r="Y38" t="n">
-        <v>344.4551017846439</v>
+        <v>344.4551017846442</v>
       </c>
     </row>
     <row r="39">
@@ -30323,28 +30323,28 @@
         <v>158.1118139118391</v>
       </c>
       <c r="J39" t="n">
-        <v>196.1993922068907</v>
+        <v>196.1993922068908</v>
       </c>
       <c r="K39" t="n">
-        <v>207.0515769377509</v>
+        <v>207.0515769377511</v>
       </c>
       <c r="L39" t="n">
-        <v>202.3719228261289</v>
+        <v>202.3719228261291</v>
       </c>
       <c r="M39" t="n">
-        <v>204.3858515197054</v>
+        <v>204.3858515197057</v>
       </c>
       <c r="N39" t="n">
-        <v>186.1447833170272</v>
+        <v>186.1447833170274</v>
       </c>
       <c r="O39" t="n">
-        <v>206.7579964582773</v>
+        <v>206.7579964582775</v>
       </c>
       <c r="P39" t="n">
-        <v>197.6750885933373</v>
+        <v>197.6750885933375</v>
       </c>
       <c r="Q39" t="n">
-        <v>214.0786366949013</v>
+        <v>214.0786366949015</v>
       </c>
       <c r="R39" t="n">
         <v>230.2155339931604</v>
@@ -30405,22 +30405,22 @@
         <v>200.1492457113304</v>
       </c>
       <c r="K40" t="n">
-        <v>199.4279442247082</v>
+        <v>199.4279442247083</v>
       </c>
       <c r="L40" t="n">
-        <v>206.1113087108743</v>
+        <v>206.1113087108744</v>
       </c>
       <c r="M40" t="n">
-        <v>211.9672842814868</v>
+        <v>211.9672842814869</v>
       </c>
       <c r="N40" t="n">
-        <v>194.0297218928976</v>
+        <v>194.0297218928978</v>
       </c>
       <c r="O40" t="n">
-        <v>212.5600441937986</v>
+        <v>212.5600441937987</v>
       </c>
       <c r="P40" t="n">
-        <v>213.1704276735044</v>
+        <v>213.1704276735045</v>
       </c>
       <c r="Q40" t="n">
         <v>238.8307194017216</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>343.9551144074438</v>
+        <v>343.9551144074439</v>
       </c>
       <c r="C41" t="n">
-        <v>343.9551144074438</v>
+        <v>343.9551144074439</v>
       </c>
       <c r="D41" t="n">
-        <v>340.2410036391491</v>
+        <v>340.2410036391499</v>
       </c>
       <c r="E41" t="n">
-        <v>343.9551144074438</v>
+        <v>343.9551144074439</v>
       </c>
       <c r="F41" t="n">
-        <v>343.9551144074438</v>
+        <v>343.9551144074439</v>
       </c>
       <c r="G41" t="n">
-        <v>343.9551144074438</v>
+        <v>343.9551144074439</v>
       </c>
       <c r="H41" t="n">
-        <v>343.9551144074438</v>
+        <v>343.9551144074439</v>
       </c>
       <c r="I41" t="n">
-        <v>343.9551144074438</v>
+        <v>343.9551144074439</v>
       </c>
       <c r="J41" t="n">
-        <v>277.5577796539004</v>
+        <v>297.7940037302404</v>
       </c>
       <c r="K41" t="n">
-        <v>343.9551144074438</v>
+        <v>332.7042409059053</v>
       </c>
       <c r="L41" t="n">
-        <v>343.9551144074438</v>
+        <v>343.9551144074439</v>
       </c>
       <c r="M41" t="n">
-        <v>339.8831719056187</v>
+        <v>343.9551144074439</v>
       </c>
       <c r="N41" t="n">
-        <v>337.8096666451764</v>
+        <v>337.8096666451767</v>
       </c>
       <c r="O41" t="n">
-        <v>340.8727754496937</v>
+        <v>343.9551144074439</v>
       </c>
       <c r="P41" t="n">
-        <v>343.9551144074438</v>
+        <v>343.9551144074439</v>
       </c>
       <c r="Q41" t="n">
-        <v>343.9551144074438</v>
+        <v>343.9551144074439</v>
       </c>
       <c r="R41" t="n">
-        <v>338.0096586506946</v>
+        <v>343.9551144074439</v>
       </c>
       <c r="S41" t="n">
         <v>283.4299048248382</v>
       </c>
       <c r="T41" t="n">
-        <v>259.1060707703029</v>
+        <v>225.5058304039513</v>
       </c>
       <c r="U41" t="n">
-        <v>267.6258127512864</v>
+        <v>281.627440372999</v>
       </c>
       <c r="V41" t="n">
         <v>308.2281821605244</v>
       </c>
       <c r="W41" t="n">
-        <v>343.9551144074438</v>
+        <v>343.9551144074439</v>
       </c>
       <c r="X41" t="n">
-        <v>343.9551144074438</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y41" t="n">
-        <v>343.9551144074438</v>
+        <v>343.9551144074439</v>
       </c>
     </row>
     <row r="42">
@@ -30560,28 +30560,28 @@
         <v>158.1118139118391</v>
       </c>
       <c r="J42" t="n">
-        <v>196.1993922068907</v>
+        <v>196.1993922068908</v>
       </c>
       <c r="K42" t="n">
-        <v>207.0515769377509</v>
+        <v>207.0515769377511</v>
       </c>
       <c r="L42" t="n">
-        <v>202.3719228261289</v>
+        <v>202.3719228261291</v>
       </c>
       <c r="M42" t="n">
-        <v>204.3858515197054</v>
+        <v>204.3858515197057</v>
       </c>
       <c r="N42" t="n">
-        <v>186.1447833170272</v>
+        <v>186.1447833170274</v>
       </c>
       <c r="O42" t="n">
-        <v>206.7579964582773</v>
+        <v>206.7579964582775</v>
       </c>
       <c r="P42" t="n">
-        <v>197.6750885933373</v>
+        <v>197.6750885933375</v>
       </c>
       <c r="Q42" t="n">
-        <v>214.0786366949013</v>
+        <v>214.0786366949015</v>
       </c>
       <c r="R42" t="n">
         <v>230.2155339931604</v>
@@ -30642,22 +30642,22 @@
         <v>200.1492457113304</v>
       </c>
       <c r="K43" t="n">
-        <v>199.4279442247082</v>
+        <v>199.4279442247083</v>
       </c>
       <c r="L43" t="n">
-        <v>206.1113087108743</v>
+        <v>206.1113087108744</v>
       </c>
       <c r="M43" t="n">
-        <v>211.9672842814868</v>
+        <v>211.9672842814869</v>
       </c>
       <c r="N43" t="n">
-        <v>194.0297218928976</v>
+        <v>194.0297218928978</v>
       </c>
       <c r="O43" t="n">
-        <v>212.5600441937986</v>
+        <v>212.5600441937987</v>
       </c>
       <c r="P43" t="n">
-        <v>213.1704276735044</v>
+        <v>213.1704276735045</v>
       </c>
       <c r="Q43" t="n">
         <v>238.8307194017216</v>
@@ -30697,7 +30697,7 @@
         <v>343.8082776867326</v>
       </c>
       <c r="C44" t="n">
-        <v>328.5652878691018</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="D44" t="n">
         <v>337.8420968625624</v>
@@ -30715,13 +30715,13 @@
         <v>343.8082776867326</v>
       </c>
       <c r="I44" t="n">
-        <v>334.2061622639935</v>
+        <v>334.2061622639936</v>
       </c>
       <c r="J44" t="n">
-        <v>308.7591132436654</v>
+        <v>277.5577796539005</v>
       </c>
       <c r="K44" t="n">
-        <v>343.8082776867326</v>
+        <v>341.2438584161118</v>
       </c>
       <c r="L44" t="n">
         <v>343.8082776867326</v>
@@ -30730,34 +30730,34 @@
         <v>343.8082776867326</v>
       </c>
       <c r="N44" t="n">
-        <v>343.8082776867326</v>
+        <v>337.8096666451766</v>
       </c>
       <c r="O44" t="n">
-        <v>343.8082776867326</v>
+        <v>340.872775449694</v>
       </c>
       <c r="P44" t="n">
         <v>343.8082776867326</v>
       </c>
       <c r="Q44" t="n">
-        <v>343.8082776867326</v>
+        <v>340.0726042012856</v>
       </c>
       <c r="R44" t="n">
-        <v>338.0096586506946</v>
+        <v>342.4061924096337</v>
       </c>
       <c r="S44" t="n">
         <v>283.4299048248382</v>
       </c>
       <c r="T44" t="n">
-        <v>256.7071639937162</v>
+        <v>256.7071639937163</v>
       </c>
       <c r="U44" t="n">
-        <v>279.2285335964115</v>
+        <v>248.0272000066465</v>
       </c>
       <c r="V44" t="n">
-        <v>308.2281821605244</v>
+        <v>339.4295157502894</v>
       </c>
       <c r="W44" t="n">
-        <v>317.0122616388729</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="X44" t="n">
         <v>341.4686393609607</v>
@@ -30797,34 +30797,34 @@
         <v>158.1118139118391</v>
       </c>
       <c r="J45" t="n">
-        <v>196.1993922068906</v>
+        <v>196.1993922068907</v>
       </c>
       <c r="K45" t="n">
-        <v>207.0515769377509</v>
+        <v>207.051576937751</v>
       </c>
       <c r="L45" t="n">
-        <v>202.3719228261289</v>
+        <v>202.371922826129</v>
       </c>
       <c r="M45" t="n">
-        <v>204.3858515197054</v>
+        <v>204.3858515197056</v>
       </c>
       <c r="N45" t="n">
-        <v>186.1447833170272</v>
+        <v>186.1447833170274</v>
       </c>
       <c r="O45" t="n">
-        <v>206.7579964582773</v>
+        <v>206.7579964582774</v>
       </c>
       <c r="P45" t="n">
-        <v>197.6750885933373</v>
+        <v>197.6750885933374</v>
       </c>
       <c r="Q45" t="n">
-        <v>214.0786366949013</v>
+        <v>214.0786366949014</v>
       </c>
       <c r="R45" t="n">
         <v>230.2155339931604</v>
       </c>
       <c r="S45" t="n">
-        <v>237.7734326579268</v>
+        <v>237.7734326579267</v>
       </c>
       <c r="T45" t="n">
         <v>244.2967850150118</v>
@@ -30885,13 +30885,13 @@
         <v>206.1113087108743</v>
       </c>
       <c r="M46" t="n">
-        <v>211.9672842814868</v>
+        <v>211.9672842814869</v>
       </c>
       <c r="N46" t="n">
-        <v>194.0297218928976</v>
+        <v>194.0297218928977</v>
       </c>
       <c r="O46" t="n">
-        <v>212.5600441937986</v>
+        <v>212.5600441937987</v>
       </c>
       <c r="P46" t="n">
         <v>213.1704276735044</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1960772936504495</v>
+        <v>0.1960772936504476</v>
       </c>
       <c r="H11" t="n">
-        <v>2.008076583597666</v>
+        <v>2.008076583597647</v>
       </c>
       <c r="I11" t="n">
-        <v>7.55926986345896</v>
+        <v>7.55926986345889</v>
       </c>
       <c r="J11" t="n">
-        <v>16.64181520196485</v>
+        <v>16.64181520196469</v>
       </c>
       <c r="K11" t="n">
-        <v>24.94176704218838</v>
+        <v>24.94176704218815</v>
       </c>
       <c r="L11" t="n">
-        <v>30.94246751774333</v>
+        <v>30.94246751774304</v>
       </c>
       <c r="M11" t="n">
-        <v>34.42945708869951</v>
+        <v>34.42945708869919</v>
       </c>
       <c r="N11" t="n">
-        <v>34.98656169928385</v>
+        <v>34.98656169928353</v>
       </c>
       <c r="O11" t="n">
-        <v>33.03681811054719</v>
+        <v>33.03681811054688</v>
       </c>
       <c r="P11" t="n">
-        <v>28.19615992355171</v>
+        <v>28.19615992355145</v>
       </c>
       <c r="Q11" t="n">
-        <v>21.17414184469499</v>
+        <v>21.17414184469479</v>
       </c>
       <c r="R11" t="n">
-        <v>12.31684029727006</v>
+        <v>12.31684029726994</v>
       </c>
       <c r="S11" t="n">
-        <v>4.468111329059622</v>
+        <v>4.46811132905958</v>
       </c>
       <c r="T11" t="n">
-        <v>0.8583283529548429</v>
+        <v>0.8583283529548349</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01568618349203595</v>
+        <v>0.01568618349203581</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1049106010319363</v>
+        <v>0.1049106010319353</v>
       </c>
       <c r="H12" t="n">
-        <v>1.01321554154528</v>
+        <v>1.01321554154527</v>
       </c>
       <c r="I12" t="n">
-        <v>3.612053588160966</v>
+        <v>3.612053588160932</v>
       </c>
       <c r="J12" t="n">
-        <v>9.911751126442722</v>
+        <v>9.911751126442629</v>
       </c>
       <c r="K12" t="n">
-        <v>16.94076139558246</v>
+        <v>16.9407613955823</v>
       </c>
       <c r="L12" t="n">
-        <v>22.7789443161667</v>
+        <v>22.77894431616649</v>
       </c>
       <c r="M12" t="n">
-        <v>26.58195360357439</v>
+        <v>26.58195360357414</v>
       </c>
       <c r="N12" t="n">
-        <v>27.28549881838944</v>
+        <v>27.28549881838918</v>
       </c>
       <c r="O12" t="n">
-        <v>24.96090076394495</v>
+        <v>24.96090076394472</v>
       </c>
       <c r="P12" t="n">
-        <v>20.03332345494931</v>
+        <v>20.03332345494913</v>
       </c>
       <c r="Q12" t="n">
-        <v>13.39174619488366</v>
+        <v>13.39174619488354</v>
       </c>
       <c r="R12" t="n">
-        <v>6.513659948281101</v>
+        <v>6.513659948281041</v>
       </c>
       <c r="S12" t="n">
-        <v>1.948668400746711</v>
+        <v>1.948668400746692</v>
       </c>
       <c r="T12" t="n">
-        <v>0.4228633436331116</v>
+        <v>0.4228633436331076</v>
       </c>
       <c r="U12" t="n">
-        <v>0.006902013225785287</v>
+        <v>0.006902013225785222</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08795352372967913</v>
+        <v>0.08795352372967831</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7819867837056932</v>
+        <v>0.7819867837056859</v>
       </c>
       <c r="I13" t="n">
-        <v>2.645002331797988</v>
+        <v>2.645002331797963</v>
       </c>
       <c r="J13" t="n">
-        <v>6.218314127688314</v>
+        <v>6.218314127688256</v>
       </c>
       <c r="K13" t="n">
-        <v>10.21860030241181</v>
+        <v>10.21860030241171</v>
       </c>
       <c r="L13" t="n">
-        <v>13.07629024613793</v>
+        <v>13.07629024613781</v>
       </c>
       <c r="M13" t="n">
-        <v>13.78711463337143</v>
+        <v>13.7871146333713</v>
       </c>
       <c r="N13" t="n">
-        <v>13.45928786310627</v>
+        <v>13.45928786310614</v>
       </c>
       <c r="O13" t="n">
-        <v>12.43183079044592</v>
+        <v>12.43183079044581</v>
       </c>
       <c r="P13" t="n">
-        <v>10.63757890636046</v>
+        <v>10.63757890636036</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.36490824612795</v>
+        <v>7.364908246127881</v>
       </c>
       <c r="R13" t="n">
-        <v>3.954710257881753</v>
+        <v>3.954710257881716</v>
       </c>
       <c r="S13" t="n">
-        <v>1.532790045361771</v>
+        <v>1.532790045361757</v>
       </c>
       <c r="T13" t="n">
-        <v>0.3758014195722653</v>
+        <v>0.3758014195722618</v>
       </c>
       <c r="U13" t="n">
-        <v>0.004797464930709776</v>
+        <v>0.004797464930709731</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1960772936504495</v>
+        <v>0.1960772936504476</v>
       </c>
       <c r="H14" t="n">
-        <v>2.008076583597666</v>
+        <v>2.008076583597647</v>
       </c>
       <c r="I14" t="n">
-        <v>7.55926986345896</v>
+        <v>7.55926986345889</v>
       </c>
       <c r="J14" t="n">
-        <v>16.64181520196485</v>
+        <v>16.64181520196469</v>
       </c>
       <c r="K14" t="n">
-        <v>24.94176704218838</v>
+        <v>24.94176704218815</v>
       </c>
       <c r="L14" t="n">
-        <v>30.94246751774333</v>
+        <v>30.94246751774304</v>
       </c>
       <c r="M14" t="n">
-        <v>34.42945708869951</v>
+        <v>34.42945708869919</v>
       </c>
       <c r="N14" t="n">
-        <v>34.98656169928385</v>
+        <v>34.98656169928353</v>
       </c>
       <c r="O14" t="n">
-        <v>33.03681811054719</v>
+        <v>33.03681811054688</v>
       </c>
       <c r="P14" t="n">
-        <v>28.19615992355171</v>
+        <v>28.19615992355145</v>
       </c>
       <c r="Q14" t="n">
-        <v>21.17414184469499</v>
+        <v>21.17414184469479</v>
       </c>
       <c r="R14" t="n">
-        <v>12.31684029727006</v>
+        <v>12.31684029726994</v>
       </c>
       <c r="S14" t="n">
-        <v>4.468111329059622</v>
+        <v>4.46811132905958</v>
       </c>
       <c r="T14" t="n">
-        <v>0.8583283529548429</v>
+        <v>0.8583283529548349</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01568618349203595</v>
+        <v>0.01568618349203581</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1049106010319363</v>
+        <v>0.1049106010319353</v>
       </c>
       <c r="H15" t="n">
-        <v>1.01321554154528</v>
+        <v>1.01321554154527</v>
       </c>
       <c r="I15" t="n">
-        <v>3.612053588160966</v>
+        <v>3.612053588160932</v>
       </c>
       <c r="J15" t="n">
-        <v>9.911751126442722</v>
+        <v>9.911751126442629</v>
       </c>
       <c r="K15" t="n">
-        <v>16.94076139558246</v>
+        <v>16.9407613955823</v>
       </c>
       <c r="L15" t="n">
-        <v>22.7789443161667</v>
+        <v>22.77894431616649</v>
       </c>
       <c r="M15" t="n">
-        <v>26.58195360357439</v>
+        <v>26.58195360357414</v>
       </c>
       <c r="N15" t="n">
-        <v>27.28549881838944</v>
+        <v>27.28549881838918</v>
       </c>
       <c r="O15" t="n">
-        <v>24.96090076394495</v>
+        <v>24.96090076394472</v>
       </c>
       <c r="P15" t="n">
-        <v>20.03332345494931</v>
+        <v>20.03332345494913</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.39174619488366</v>
+        <v>13.39174619488354</v>
       </c>
       <c r="R15" t="n">
-        <v>6.513659948281101</v>
+        <v>6.513659948281041</v>
       </c>
       <c r="S15" t="n">
-        <v>1.948668400746711</v>
+        <v>1.948668400746692</v>
       </c>
       <c r="T15" t="n">
-        <v>0.4228633436331116</v>
+        <v>0.4228633436331076</v>
       </c>
       <c r="U15" t="n">
-        <v>0.006902013225785287</v>
+        <v>0.006902013225785222</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08795352372967913</v>
+        <v>0.08795352372967831</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7819867837056932</v>
+        <v>0.7819867837056859</v>
       </c>
       <c r="I16" t="n">
-        <v>2.645002331797988</v>
+        <v>2.645002331797963</v>
       </c>
       <c r="J16" t="n">
-        <v>6.218314127688314</v>
+        <v>6.218314127688256</v>
       </c>
       <c r="K16" t="n">
-        <v>10.21860030241181</v>
+        <v>10.21860030241171</v>
       </c>
       <c r="L16" t="n">
-        <v>13.07629024613793</v>
+        <v>13.07629024613781</v>
       </c>
       <c r="M16" t="n">
-        <v>13.78711463337143</v>
+        <v>13.7871146333713</v>
       </c>
       <c r="N16" t="n">
-        <v>13.45928786310627</v>
+        <v>13.45928786310614</v>
       </c>
       <c r="O16" t="n">
-        <v>12.43183079044592</v>
+        <v>12.43183079044581</v>
       </c>
       <c r="P16" t="n">
-        <v>10.63757890636046</v>
+        <v>10.63757890636036</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.36490824612795</v>
+        <v>7.364908246127881</v>
       </c>
       <c r="R16" t="n">
-        <v>3.954710257881753</v>
+        <v>3.954710257881716</v>
       </c>
       <c r="S16" t="n">
-        <v>1.532790045361771</v>
+        <v>1.532790045361757</v>
       </c>
       <c r="T16" t="n">
-        <v>0.3758014195722653</v>
+        <v>0.3758014195722618</v>
       </c>
       <c r="U16" t="n">
-        <v>0.004797464930709776</v>
+        <v>0.004797464930709731</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1960772936504495</v>
+        <v>0.1960772936504473</v>
       </c>
       <c r="H17" t="n">
-        <v>2.008076583597666</v>
+        <v>2.008076583597644</v>
       </c>
       <c r="I17" t="n">
-        <v>7.55926986345896</v>
+        <v>7.559269863458878</v>
       </c>
       <c r="J17" t="n">
-        <v>16.64181520196485</v>
+        <v>16.64181520196467</v>
       </c>
       <c r="K17" t="n">
-        <v>24.94176704218838</v>
+        <v>24.94176704218811</v>
       </c>
       <c r="L17" t="n">
-        <v>30.94246751774333</v>
+        <v>30.94246751774299</v>
       </c>
       <c r="M17" t="n">
-        <v>34.42945708869951</v>
+        <v>34.42945708869914</v>
       </c>
       <c r="N17" t="n">
-        <v>34.98656169928385</v>
+        <v>34.98656169928347</v>
       </c>
       <c r="O17" t="n">
-        <v>33.03681811054719</v>
+        <v>33.03681811054683</v>
       </c>
       <c r="P17" t="n">
-        <v>28.19615992355171</v>
+        <v>28.19615992355141</v>
       </c>
       <c r="Q17" t="n">
-        <v>21.17414184469499</v>
+        <v>21.17414184469476</v>
       </c>
       <c r="R17" t="n">
-        <v>12.31684029727006</v>
+        <v>12.31684029726992</v>
       </c>
       <c r="S17" t="n">
-        <v>4.468111329059622</v>
+        <v>4.468111329059573</v>
       </c>
       <c r="T17" t="n">
-        <v>0.8583283529548429</v>
+        <v>0.8583283529548337</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01568618349203595</v>
+        <v>0.01568618349203578</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1049106010319363</v>
+        <v>0.1049106010319352</v>
       </c>
       <c r="H18" t="n">
-        <v>1.01321554154528</v>
+        <v>1.013215541545269</v>
       </c>
       <c r="I18" t="n">
-        <v>3.612053588160966</v>
+        <v>3.612053588160927</v>
       </c>
       <c r="J18" t="n">
-        <v>9.911751126442722</v>
+        <v>9.911751126442615</v>
       </c>
       <c r="K18" t="n">
-        <v>16.94076139558246</v>
+        <v>16.94076139558227</v>
       </c>
       <c r="L18" t="n">
-        <v>22.7789443161667</v>
+        <v>22.77894431616646</v>
       </c>
       <c r="M18" t="n">
-        <v>26.58195360357439</v>
+        <v>26.5819536035741</v>
       </c>
       <c r="N18" t="n">
-        <v>27.28549881838944</v>
+        <v>27.28549881838914</v>
       </c>
       <c r="O18" t="n">
-        <v>24.96090076394495</v>
+        <v>24.96090076394468</v>
       </c>
       <c r="P18" t="n">
-        <v>20.03332345494931</v>
+        <v>20.0333234549491</v>
       </c>
       <c r="Q18" t="n">
-        <v>13.39174619488366</v>
+        <v>13.39174619488352</v>
       </c>
       <c r="R18" t="n">
-        <v>6.513659948281101</v>
+        <v>6.513659948281031</v>
       </c>
       <c r="S18" t="n">
-        <v>1.948668400746711</v>
+        <v>1.948668400746689</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4228633436331116</v>
+        <v>0.422863343633107</v>
       </c>
       <c r="U18" t="n">
-        <v>0.006902013225785287</v>
+        <v>0.006902013225785212</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08795352372967913</v>
+        <v>0.08795352372967817</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7819867837056932</v>
+        <v>0.7819867837056848</v>
       </c>
       <c r="I19" t="n">
-        <v>2.645002331797988</v>
+        <v>2.645002331797959</v>
       </c>
       <c r="J19" t="n">
-        <v>6.218314127688314</v>
+        <v>6.218314127688247</v>
       </c>
       <c r="K19" t="n">
-        <v>10.21860030241181</v>
+        <v>10.2186003024117</v>
       </c>
       <c r="L19" t="n">
-        <v>13.07629024613793</v>
+        <v>13.07629024613779</v>
       </c>
       <c r="M19" t="n">
-        <v>13.78711463337143</v>
+        <v>13.78711463337128</v>
       </c>
       <c r="N19" t="n">
-        <v>13.45928786310627</v>
+        <v>13.45928786310613</v>
       </c>
       <c r="O19" t="n">
-        <v>12.43183079044592</v>
+        <v>12.43183079044579</v>
       </c>
       <c r="P19" t="n">
-        <v>10.63757890636046</v>
+        <v>10.63757890636035</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.36490824612795</v>
+        <v>7.364908246127871</v>
       </c>
       <c r="R19" t="n">
-        <v>3.954710257881753</v>
+        <v>3.954710257881711</v>
       </c>
       <c r="S19" t="n">
-        <v>1.532790045361771</v>
+        <v>1.532790045361755</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3758014195722653</v>
+        <v>0.3758014195722612</v>
       </c>
       <c r="U19" t="n">
-        <v>0.004797464930709776</v>
+        <v>0.004797464930709724</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1960772936504495</v>
+        <v>0.1960772936504476</v>
       </c>
       <c r="H20" t="n">
-        <v>2.008076583597666</v>
+        <v>2.008076583597647</v>
       </c>
       <c r="I20" t="n">
-        <v>7.55926986345896</v>
+        <v>7.55926986345889</v>
       </c>
       <c r="J20" t="n">
-        <v>16.64181520196485</v>
+        <v>16.64181520196469</v>
       </c>
       <c r="K20" t="n">
-        <v>24.94176704218838</v>
+        <v>24.94176704218815</v>
       </c>
       <c r="L20" t="n">
-        <v>30.94246751774333</v>
+        <v>30.94246751774304</v>
       </c>
       <c r="M20" t="n">
-        <v>34.42945708869951</v>
+        <v>34.42945708869919</v>
       </c>
       <c r="N20" t="n">
-        <v>34.98656169928385</v>
+        <v>34.98656169928353</v>
       </c>
       <c r="O20" t="n">
-        <v>33.03681811054719</v>
+        <v>33.03681811054688</v>
       </c>
       <c r="P20" t="n">
-        <v>28.19615992355171</v>
+        <v>28.19615992355145</v>
       </c>
       <c r="Q20" t="n">
-        <v>21.17414184469499</v>
+        <v>21.17414184469479</v>
       </c>
       <c r="R20" t="n">
-        <v>12.31684029727006</v>
+        <v>12.31684029726994</v>
       </c>
       <c r="S20" t="n">
-        <v>4.468111329059622</v>
+        <v>4.46811132905958</v>
       </c>
       <c r="T20" t="n">
-        <v>0.8583283529548429</v>
+        <v>0.8583283529548349</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01568618349203595</v>
+        <v>0.01568618349203581</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1049106010319363</v>
+        <v>0.1049106010319353</v>
       </c>
       <c r="H21" t="n">
-        <v>1.01321554154528</v>
+        <v>1.01321554154527</v>
       </c>
       <c r="I21" t="n">
-        <v>3.612053588160966</v>
+        <v>3.612053588160932</v>
       </c>
       <c r="J21" t="n">
-        <v>9.911751126442722</v>
+        <v>9.911751126442629</v>
       </c>
       <c r="K21" t="n">
-        <v>16.94076139558246</v>
+        <v>16.9407613955823</v>
       </c>
       <c r="L21" t="n">
-        <v>22.7789443161667</v>
+        <v>22.77894431616649</v>
       </c>
       <c r="M21" t="n">
-        <v>26.58195360357439</v>
+        <v>26.58195360357414</v>
       </c>
       <c r="N21" t="n">
-        <v>27.28549881838944</v>
+        <v>27.28549881838918</v>
       </c>
       <c r="O21" t="n">
-        <v>24.96090076394495</v>
+        <v>24.96090076394472</v>
       </c>
       <c r="P21" t="n">
-        <v>20.03332345494931</v>
+        <v>20.03332345494913</v>
       </c>
       <c r="Q21" t="n">
-        <v>13.39174619488366</v>
+        <v>13.39174619488354</v>
       </c>
       <c r="R21" t="n">
-        <v>6.513659948281101</v>
+        <v>6.513659948281041</v>
       </c>
       <c r="S21" t="n">
-        <v>1.948668400746711</v>
+        <v>1.948668400746692</v>
       </c>
       <c r="T21" t="n">
-        <v>0.4228633436331116</v>
+        <v>0.4228633436331076</v>
       </c>
       <c r="U21" t="n">
-        <v>0.006902013225785287</v>
+        <v>0.006902013225785222</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08795352372967913</v>
+        <v>0.08795352372967831</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7819867837056932</v>
+        <v>0.7819867837056859</v>
       </c>
       <c r="I22" t="n">
-        <v>2.645002331797988</v>
+        <v>2.645002331797963</v>
       </c>
       <c r="J22" t="n">
-        <v>6.218314127688314</v>
+        <v>6.218314127688256</v>
       </c>
       <c r="K22" t="n">
-        <v>10.21860030241181</v>
+        <v>10.21860030241171</v>
       </c>
       <c r="L22" t="n">
-        <v>13.07629024613793</v>
+        <v>13.07629024613781</v>
       </c>
       <c r="M22" t="n">
-        <v>13.78711463337143</v>
+        <v>13.7871146333713</v>
       </c>
       <c r="N22" t="n">
-        <v>13.45928786310627</v>
+        <v>13.45928786310614</v>
       </c>
       <c r="O22" t="n">
-        <v>12.43183079044592</v>
+        <v>12.43183079044581</v>
       </c>
       <c r="P22" t="n">
-        <v>10.63757890636046</v>
+        <v>10.63757890636036</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.36490824612795</v>
+        <v>7.364908246127881</v>
       </c>
       <c r="R22" t="n">
-        <v>3.954710257881753</v>
+        <v>3.954710257881716</v>
       </c>
       <c r="S22" t="n">
-        <v>1.532790045361771</v>
+        <v>1.532790045361757</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3758014195722653</v>
+        <v>0.3758014195722618</v>
       </c>
       <c r="U22" t="n">
-        <v>0.004797464930709776</v>
+        <v>0.004797464930709731</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1960772936504495</v>
+        <v>0.1960772936504476</v>
       </c>
       <c r="H23" t="n">
-        <v>2.008076583597666</v>
+        <v>2.008076583597647</v>
       </c>
       <c r="I23" t="n">
-        <v>7.55926986345896</v>
+        <v>7.55926986345889</v>
       </c>
       <c r="J23" t="n">
-        <v>16.64181520196485</v>
+        <v>16.64181520196469</v>
       </c>
       <c r="K23" t="n">
-        <v>24.94176704218838</v>
+        <v>24.94176704218815</v>
       </c>
       <c r="L23" t="n">
-        <v>30.94246751774333</v>
+        <v>30.94246751774304</v>
       </c>
       <c r="M23" t="n">
-        <v>34.42945708869951</v>
+        <v>34.42945708869919</v>
       </c>
       <c r="N23" t="n">
-        <v>34.98656169928385</v>
+        <v>34.98656169928353</v>
       </c>
       <c r="O23" t="n">
-        <v>33.03681811054719</v>
+        <v>33.03681811054688</v>
       </c>
       <c r="P23" t="n">
-        <v>28.19615992355171</v>
+        <v>28.19615992355145</v>
       </c>
       <c r="Q23" t="n">
-        <v>21.17414184469499</v>
+        <v>21.17414184469479</v>
       </c>
       <c r="R23" t="n">
-        <v>12.31684029727006</v>
+        <v>12.31684029726994</v>
       </c>
       <c r="S23" t="n">
-        <v>4.468111329059622</v>
+        <v>4.46811132905958</v>
       </c>
       <c r="T23" t="n">
-        <v>0.8583283529548429</v>
+        <v>0.8583283529548349</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01568618349203595</v>
+        <v>0.01568618349203581</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1049106010319363</v>
+        <v>0.1049106010319353</v>
       </c>
       <c r="H24" t="n">
-        <v>1.01321554154528</v>
+        <v>1.01321554154527</v>
       </c>
       <c r="I24" t="n">
-        <v>3.612053588160966</v>
+        <v>3.612053588160932</v>
       </c>
       <c r="J24" t="n">
-        <v>9.911751126442722</v>
+        <v>9.911751126442629</v>
       </c>
       <c r="K24" t="n">
-        <v>16.94076139558246</v>
+        <v>16.9407613955823</v>
       </c>
       <c r="L24" t="n">
-        <v>22.7789443161667</v>
+        <v>22.77894431616649</v>
       </c>
       <c r="M24" t="n">
-        <v>26.58195360357439</v>
+        <v>26.58195360357414</v>
       </c>
       <c r="N24" t="n">
-        <v>27.28549881838944</v>
+        <v>27.28549881838918</v>
       </c>
       <c r="O24" t="n">
-        <v>24.96090076394495</v>
+        <v>24.96090076394472</v>
       </c>
       <c r="P24" t="n">
-        <v>20.03332345494931</v>
+        <v>20.03332345494913</v>
       </c>
       <c r="Q24" t="n">
-        <v>13.39174619488366</v>
+        <v>13.39174619488354</v>
       </c>
       <c r="R24" t="n">
-        <v>6.513659948281101</v>
+        <v>6.513659948281041</v>
       </c>
       <c r="S24" t="n">
-        <v>1.948668400746711</v>
+        <v>1.948668400746692</v>
       </c>
       <c r="T24" t="n">
-        <v>0.4228633436331116</v>
+        <v>0.4228633436331076</v>
       </c>
       <c r="U24" t="n">
-        <v>0.006902013225785287</v>
+        <v>0.006902013225785222</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08795352372967913</v>
+        <v>0.08795352372967831</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7819867837056932</v>
+        <v>0.7819867837056859</v>
       </c>
       <c r="I25" t="n">
-        <v>2.645002331797988</v>
+        <v>2.645002331797963</v>
       </c>
       <c r="J25" t="n">
-        <v>6.218314127688314</v>
+        <v>6.218314127688256</v>
       </c>
       <c r="K25" t="n">
-        <v>10.21860030241181</v>
+        <v>10.21860030241171</v>
       </c>
       <c r="L25" t="n">
-        <v>13.07629024613793</v>
+        <v>13.07629024613781</v>
       </c>
       <c r="M25" t="n">
-        <v>13.78711463337143</v>
+        <v>13.7871146333713</v>
       </c>
       <c r="N25" t="n">
-        <v>13.45928786310627</v>
+        <v>13.45928786310614</v>
       </c>
       <c r="O25" t="n">
-        <v>12.43183079044592</v>
+        <v>12.43183079044581</v>
       </c>
       <c r="P25" t="n">
-        <v>10.63757890636046</v>
+        <v>10.63757890636036</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.36490824612795</v>
+        <v>7.364908246127881</v>
       </c>
       <c r="R25" t="n">
-        <v>3.954710257881753</v>
+        <v>3.954710257881716</v>
       </c>
       <c r="S25" t="n">
-        <v>1.532790045361771</v>
+        <v>1.532790045361757</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3758014195722653</v>
+        <v>0.3758014195722618</v>
       </c>
       <c r="U25" t="n">
-        <v>0.004797464930709776</v>
+        <v>0.004797464930709731</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1960772936504495</v>
+        <v>0.1960772936504476</v>
       </c>
       <c r="H26" t="n">
-        <v>2.008076583597666</v>
+        <v>2.008076583597647</v>
       </c>
       <c r="I26" t="n">
-        <v>7.55926986345896</v>
+        <v>7.55926986345889</v>
       </c>
       <c r="J26" t="n">
-        <v>16.64181520196485</v>
+        <v>16.64181520196469</v>
       </c>
       <c r="K26" t="n">
-        <v>24.94176704218838</v>
+        <v>24.94176704218815</v>
       </c>
       <c r="L26" t="n">
-        <v>30.94246751774333</v>
+        <v>30.94246751774304</v>
       </c>
       <c r="M26" t="n">
-        <v>34.42945708869951</v>
+        <v>34.42945708869919</v>
       </c>
       <c r="N26" t="n">
-        <v>34.98656169928385</v>
+        <v>34.98656169928353</v>
       </c>
       <c r="O26" t="n">
-        <v>33.03681811054719</v>
+        <v>33.03681811054688</v>
       </c>
       <c r="P26" t="n">
-        <v>28.19615992355171</v>
+        <v>28.19615992355145</v>
       </c>
       <c r="Q26" t="n">
-        <v>21.17414184469499</v>
+        <v>21.17414184469479</v>
       </c>
       <c r="R26" t="n">
-        <v>12.31684029727006</v>
+        <v>12.31684029726994</v>
       </c>
       <c r="S26" t="n">
-        <v>4.468111329059622</v>
+        <v>4.46811132905958</v>
       </c>
       <c r="T26" t="n">
-        <v>0.8583283529548429</v>
+        <v>0.8583283529548349</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01568618349203595</v>
+        <v>0.01568618349203581</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1049106010319363</v>
+        <v>0.1049106010319353</v>
       </c>
       <c r="H27" t="n">
-        <v>1.01321554154528</v>
+        <v>1.01321554154527</v>
       </c>
       <c r="I27" t="n">
-        <v>3.612053588160966</v>
+        <v>3.612053588160932</v>
       </c>
       <c r="J27" t="n">
-        <v>9.911751126442722</v>
+        <v>9.911751126442629</v>
       </c>
       <c r="K27" t="n">
-        <v>16.94076139558246</v>
+        <v>16.9407613955823</v>
       </c>
       <c r="L27" t="n">
-        <v>22.7789443161667</v>
+        <v>22.77894431616649</v>
       </c>
       <c r="M27" t="n">
-        <v>26.58195360357439</v>
+        <v>26.58195360357414</v>
       </c>
       <c r="N27" t="n">
-        <v>27.28549881838944</v>
+        <v>27.28549881838918</v>
       </c>
       <c r="O27" t="n">
-        <v>24.96090076394495</v>
+        <v>24.96090076394472</v>
       </c>
       <c r="P27" t="n">
-        <v>20.03332345494931</v>
+        <v>20.03332345494913</v>
       </c>
       <c r="Q27" t="n">
-        <v>13.39174619488366</v>
+        <v>13.39174619488354</v>
       </c>
       <c r="R27" t="n">
-        <v>6.513659948281101</v>
+        <v>6.513659948281041</v>
       </c>
       <c r="S27" t="n">
-        <v>1.948668400746711</v>
+        <v>1.948668400746692</v>
       </c>
       <c r="T27" t="n">
-        <v>0.4228633436331116</v>
+        <v>0.4228633436331076</v>
       </c>
       <c r="U27" t="n">
-        <v>0.006902013225785287</v>
+        <v>0.006902013225785222</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.08795352372967913</v>
+        <v>0.08795352372967831</v>
       </c>
       <c r="H28" t="n">
-        <v>0.7819867837056932</v>
+        <v>0.7819867837056859</v>
       </c>
       <c r="I28" t="n">
-        <v>2.645002331797988</v>
+        <v>2.645002331797963</v>
       </c>
       <c r="J28" t="n">
-        <v>6.218314127688314</v>
+        <v>6.218314127688256</v>
       </c>
       <c r="K28" t="n">
-        <v>10.21860030241181</v>
+        <v>10.21860030241171</v>
       </c>
       <c r="L28" t="n">
-        <v>13.07629024613793</v>
+        <v>13.07629024613781</v>
       </c>
       <c r="M28" t="n">
-        <v>13.78711463337143</v>
+        <v>13.7871146333713</v>
       </c>
       <c r="N28" t="n">
-        <v>13.45928786310627</v>
+        <v>13.45928786310614</v>
       </c>
       <c r="O28" t="n">
-        <v>12.43183079044592</v>
+        <v>12.43183079044581</v>
       </c>
       <c r="P28" t="n">
-        <v>10.63757890636046</v>
+        <v>10.63757890636036</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.36490824612795</v>
+        <v>7.364908246127881</v>
       </c>
       <c r="R28" t="n">
-        <v>3.954710257881753</v>
+        <v>3.954710257881716</v>
       </c>
       <c r="S28" t="n">
-        <v>1.532790045361771</v>
+        <v>1.532790045361757</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3758014195722653</v>
+        <v>0.3758014195722618</v>
       </c>
       <c r="U28" t="n">
-        <v>0.004797464930709776</v>
+        <v>0.004797464930709731</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1960772936504495</v>
+        <v>0.1960772936504476</v>
       </c>
       <c r="H29" t="n">
-        <v>2.008076583597666</v>
+        <v>2.008076583597647</v>
       </c>
       <c r="I29" t="n">
-        <v>7.55926986345896</v>
+        <v>7.55926986345889</v>
       </c>
       <c r="J29" t="n">
-        <v>16.64181520196485</v>
+        <v>16.64181520196469</v>
       </c>
       <c r="K29" t="n">
-        <v>24.94176704218838</v>
+        <v>24.94176704218815</v>
       </c>
       <c r="L29" t="n">
-        <v>30.94246751774333</v>
+        <v>30.94246751774304</v>
       </c>
       <c r="M29" t="n">
-        <v>34.42945708869951</v>
+        <v>34.42945708869919</v>
       </c>
       <c r="N29" t="n">
-        <v>34.98656169928385</v>
+        <v>34.98656169928353</v>
       </c>
       <c r="O29" t="n">
-        <v>33.03681811054719</v>
+        <v>33.03681811054688</v>
       </c>
       <c r="P29" t="n">
-        <v>28.19615992355171</v>
+        <v>28.19615992355145</v>
       </c>
       <c r="Q29" t="n">
-        <v>21.17414184469499</v>
+        <v>21.17414184469479</v>
       </c>
       <c r="R29" t="n">
-        <v>12.31684029727006</v>
+        <v>12.31684029726994</v>
       </c>
       <c r="S29" t="n">
-        <v>4.468111329059622</v>
+        <v>4.46811132905958</v>
       </c>
       <c r="T29" t="n">
-        <v>0.8583283529548429</v>
+        <v>0.8583283529548349</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01568618349203595</v>
+        <v>0.01568618349203581</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1049106010319363</v>
+        <v>0.1049106010319353</v>
       </c>
       <c r="H30" t="n">
-        <v>1.01321554154528</v>
+        <v>1.01321554154527</v>
       </c>
       <c r="I30" t="n">
-        <v>3.612053588160966</v>
+        <v>3.612053588160932</v>
       </c>
       <c r="J30" t="n">
-        <v>9.911751126442722</v>
+        <v>9.911751126442629</v>
       </c>
       <c r="K30" t="n">
-        <v>16.94076139558246</v>
+        <v>16.9407613955823</v>
       </c>
       <c r="L30" t="n">
-        <v>22.7789443161667</v>
+        <v>22.77894431616649</v>
       </c>
       <c r="M30" t="n">
-        <v>26.58195360357439</v>
+        <v>26.58195360357414</v>
       </c>
       <c r="N30" t="n">
-        <v>27.28549881838944</v>
+        <v>27.28549881838918</v>
       </c>
       <c r="O30" t="n">
-        <v>24.96090076394495</v>
+        <v>24.96090076394472</v>
       </c>
       <c r="P30" t="n">
-        <v>20.03332345494931</v>
+        <v>20.03332345494913</v>
       </c>
       <c r="Q30" t="n">
-        <v>13.39174619488366</v>
+        <v>13.39174619488354</v>
       </c>
       <c r="R30" t="n">
-        <v>6.513659948281101</v>
+        <v>6.513659948281041</v>
       </c>
       <c r="S30" t="n">
-        <v>1.948668400746711</v>
+        <v>1.948668400746692</v>
       </c>
       <c r="T30" t="n">
-        <v>0.4228633436331116</v>
+        <v>0.4228633436331076</v>
       </c>
       <c r="U30" t="n">
-        <v>0.006902013225785287</v>
+        <v>0.006902013225785222</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.08795352372967913</v>
+        <v>0.08795352372967831</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7819867837056932</v>
+        <v>0.7819867837056859</v>
       </c>
       <c r="I31" t="n">
-        <v>2.645002331797988</v>
+        <v>2.645002331797963</v>
       </c>
       <c r="J31" t="n">
-        <v>6.218314127688314</v>
+        <v>6.218314127688256</v>
       </c>
       <c r="K31" t="n">
-        <v>10.21860030241181</v>
+        <v>10.21860030241171</v>
       </c>
       <c r="L31" t="n">
-        <v>13.07629024613793</v>
+        <v>13.07629024613781</v>
       </c>
       <c r="M31" t="n">
-        <v>13.78711463337143</v>
+        <v>13.7871146333713</v>
       </c>
       <c r="N31" t="n">
-        <v>13.45928786310627</v>
+        <v>13.45928786310614</v>
       </c>
       <c r="O31" t="n">
-        <v>12.43183079044592</v>
+        <v>12.43183079044581</v>
       </c>
       <c r="P31" t="n">
-        <v>10.63757890636046</v>
+        <v>10.63757890636036</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.36490824612795</v>
+        <v>7.364908246127881</v>
       </c>
       <c r="R31" t="n">
-        <v>3.954710257881753</v>
+        <v>3.954710257881716</v>
       </c>
       <c r="S31" t="n">
-        <v>1.532790045361771</v>
+        <v>1.532790045361757</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3758014195722653</v>
+        <v>0.3758014195722618</v>
       </c>
       <c r="U31" t="n">
-        <v>0.004797464930709776</v>
+        <v>0.004797464930709731</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1960772936504495</v>
+        <v>0.1960772936504476</v>
       </c>
       <c r="H32" t="n">
-        <v>2.008076583597666</v>
+        <v>2.008076583597647</v>
       </c>
       <c r="I32" t="n">
-        <v>7.55926986345896</v>
+        <v>7.55926986345889</v>
       </c>
       <c r="J32" t="n">
-        <v>16.64181520196485</v>
+        <v>16.64181520196469</v>
       </c>
       <c r="K32" t="n">
-        <v>24.94176704218838</v>
+        <v>24.94176704218815</v>
       </c>
       <c r="L32" t="n">
-        <v>30.94246751774333</v>
+        <v>30.94246751774304</v>
       </c>
       <c r="M32" t="n">
-        <v>34.42945708869951</v>
+        <v>34.42945708869919</v>
       </c>
       <c r="N32" t="n">
-        <v>34.98656169928385</v>
+        <v>34.98656169928353</v>
       </c>
       <c r="O32" t="n">
-        <v>33.03681811054719</v>
+        <v>33.03681811054688</v>
       </c>
       <c r="P32" t="n">
-        <v>28.19615992355171</v>
+        <v>28.19615992355145</v>
       </c>
       <c r="Q32" t="n">
-        <v>21.17414184469499</v>
+        <v>21.17414184469479</v>
       </c>
       <c r="R32" t="n">
-        <v>12.31684029727006</v>
+        <v>12.31684029726994</v>
       </c>
       <c r="S32" t="n">
-        <v>4.468111329059622</v>
+        <v>4.46811132905958</v>
       </c>
       <c r="T32" t="n">
-        <v>0.8583283529548429</v>
+        <v>0.8583283529548349</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01568618349203595</v>
+        <v>0.01568618349203581</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1049106010319363</v>
+        <v>0.1049106010319353</v>
       </c>
       <c r="H33" t="n">
-        <v>1.01321554154528</v>
+        <v>1.01321554154527</v>
       </c>
       <c r="I33" t="n">
-        <v>3.612053588160966</v>
+        <v>3.612053588160932</v>
       </c>
       <c r="J33" t="n">
-        <v>9.911751126442722</v>
+        <v>9.911751126442629</v>
       </c>
       <c r="K33" t="n">
-        <v>16.94076139558246</v>
+        <v>16.9407613955823</v>
       </c>
       <c r="L33" t="n">
-        <v>22.7789443161667</v>
+        <v>22.77894431616649</v>
       </c>
       <c r="M33" t="n">
-        <v>26.58195360357439</v>
+        <v>26.58195360357414</v>
       </c>
       <c r="N33" t="n">
-        <v>27.28549881838944</v>
+        <v>27.28549881838918</v>
       </c>
       <c r="O33" t="n">
-        <v>24.96090076394495</v>
+        <v>24.96090076394472</v>
       </c>
       <c r="P33" t="n">
-        <v>20.03332345494931</v>
+        <v>20.03332345494913</v>
       </c>
       <c r="Q33" t="n">
-        <v>13.39174619488366</v>
+        <v>13.39174619488354</v>
       </c>
       <c r="R33" t="n">
-        <v>6.513659948281101</v>
+        <v>6.513659948281041</v>
       </c>
       <c r="S33" t="n">
-        <v>1.948668400746711</v>
+        <v>1.948668400746692</v>
       </c>
       <c r="T33" t="n">
-        <v>0.4228633436331116</v>
+        <v>0.4228633436331076</v>
       </c>
       <c r="U33" t="n">
-        <v>0.006902013225785287</v>
+        <v>0.006902013225785222</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.08795352372967913</v>
+        <v>0.08795352372967831</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7819867837056932</v>
+        <v>0.7819867837056859</v>
       </c>
       <c r="I34" t="n">
-        <v>2.645002331797988</v>
+        <v>2.645002331797963</v>
       </c>
       <c r="J34" t="n">
-        <v>6.218314127688314</v>
+        <v>6.218314127688256</v>
       </c>
       <c r="K34" t="n">
-        <v>10.21860030241181</v>
+        <v>10.21860030241171</v>
       </c>
       <c r="L34" t="n">
-        <v>13.07629024613793</v>
+        <v>13.07629024613781</v>
       </c>
       <c r="M34" t="n">
-        <v>13.78711463337143</v>
+        <v>13.7871146333713</v>
       </c>
       <c r="N34" t="n">
-        <v>13.45928786310627</v>
+        <v>13.45928786310614</v>
       </c>
       <c r="O34" t="n">
-        <v>12.43183079044592</v>
+        <v>12.43183079044581</v>
       </c>
       <c r="P34" t="n">
-        <v>10.63757890636046</v>
+        <v>10.63757890636036</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.36490824612795</v>
+        <v>7.364908246127881</v>
       </c>
       <c r="R34" t="n">
-        <v>3.954710257881753</v>
+        <v>3.954710257881716</v>
       </c>
       <c r="S34" t="n">
-        <v>1.532790045361771</v>
+        <v>1.532790045361757</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3758014195722653</v>
+        <v>0.3758014195722618</v>
       </c>
       <c r="U34" t="n">
-        <v>0.004797464930709776</v>
+        <v>0.004797464930709731</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1960772936504495</v>
+        <v>0.1960772936504476</v>
       </c>
       <c r="H35" t="n">
-        <v>2.008076583597666</v>
+        <v>2.008076583597647</v>
       </c>
       <c r="I35" t="n">
-        <v>7.55926986345896</v>
+        <v>7.55926986345889</v>
       </c>
       <c r="J35" t="n">
-        <v>16.64181520196485</v>
+        <v>16.64181520196469</v>
       </c>
       <c r="K35" t="n">
-        <v>24.94176704218838</v>
+        <v>24.94176704218815</v>
       </c>
       <c r="L35" t="n">
-        <v>30.94246751774333</v>
+        <v>30.94246751774304</v>
       </c>
       <c r="M35" t="n">
-        <v>34.42945708869951</v>
+        <v>34.42945708869919</v>
       </c>
       <c r="N35" t="n">
-        <v>34.98656169928385</v>
+        <v>34.98656169928353</v>
       </c>
       <c r="O35" t="n">
-        <v>33.03681811054719</v>
+        <v>33.03681811054688</v>
       </c>
       <c r="P35" t="n">
-        <v>28.19615992355171</v>
+        <v>28.19615992355145</v>
       </c>
       <c r="Q35" t="n">
-        <v>21.17414184469499</v>
+        <v>21.17414184469479</v>
       </c>
       <c r="R35" t="n">
-        <v>12.31684029727006</v>
+        <v>12.31684029726994</v>
       </c>
       <c r="S35" t="n">
-        <v>4.468111329059622</v>
+        <v>4.46811132905958</v>
       </c>
       <c r="T35" t="n">
-        <v>0.8583283529548429</v>
+        <v>0.8583283529548349</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01568618349203595</v>
+        <v>0.01568618349203581</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1049106010319363</v>
+        <v>0.1049106010319353</v>
       </c>
       <c r="H36" t="n">
-        <v>1.01321554154528</v>
+        <v>1.01321554154527</v>
       </c>
       <c r="I36" t="n">
-        <v>3.612053588160966</v>
+        <v>3.612053588160932</v>
       </c>
       <c r="J36" t="n">
-        <v>9.911751126442722</v>
+        <v>9.911751126442629</v>
       </c>
       <c r="K36" t="n">
-        <v>16.94076139558246</v>
+        <v>16.9407613955823</v>
       </c>
       <c r="L36" t="n">
-        <v>22.7789443161667</v>
+        <v>22.77894431616649</v>
       </c>
       <c r="M36" t="n">
-        <v>26.58195360357439</v>
+        <v>26.58195360357414</v>
       </c>
       <c r="N36" t="n">
-        <v>27.28549881838944</v>
+        <v>27.28549881838918</v>
       </c>
       <c r="O36" t="n">
-        <v>24.96090076394495</v>
+        <v>24.96090076394472</v>
       </c>
       <c r="P36" t="n">
-        <v>20.03332345494931</v>
+        <v>20.03332345494913</v>
       </c>
       <c r="Q36" t="n">
-        <v>13.39174619488366</v>
+        <v>13.39174619488354</v>
       </c>
       <c r="R36" t="n">
-        <v>6.513659948281101</v>
+        <v>6.513659948281041</v>
       </c>
       <c r="S36" t="n">
-        <v>1.948668400746711</v>
+        <v>1.948668400746692</v>
       </c>
       <c r="T36" t="n">
-        <v>0.4228633436331116</v>
+        <v>0.4228633436331076</v>
       </c>
       <c r="U36" t="n">
-        <v>0.006902013225785287</v>
+        <v>0.006902013225785222</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.08795352372967913</v>
+        <v>0.08795352372967831</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7819867837056932</v>
+        <v>0.7819867837056859</v>
       </c>
       <c r="I37" t="n">
-        <v>2.645002331797988</v>
+        <v>2.645002331797963</v>
       </c>
       <c r="J37" t="n">
-        <v>6.218314127688314</v>
+        <v>6.218314127688256</v>
       </c>
       <c r="K37" t="n">
-        <v>10.21860030241181</v>
+        <v>10.21860030241171</v>
       </c>
       <c r="L37" t="n">
-        <v>13.07629024613793</v>
+        <v>13.07629024613781</v>
       </c>
       <c r="M37" t="n">
-        <v>13.78711463337143</v>
+        <v>13.7871146333713</v>
       </c>
       <c r="N37" t="n">
-        <v>13.45928786310627</v>
+        <v>13.45928786310614</v>
       </c>
       <c r="O37" t="n">
-        <v>12.43183079044592</v>
+        <v>12.43183079044581</v>
       </c>
       <c r="P37" t="n">
-        <v>10.63757890636046</v>
+        <v>10.63757890636036</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.36490824612795</v>
+        <v>7.364908246127881</v>
       </c>
       <c r="R37" t="n">
-        <v>3.954710257881753</v>
+        <v>3.954710257881716</v>
       </c>
       <c r="S37" t="n">
-        <v>1.532790045361771</v>
+        <v>1.532790045361757</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3758014195722653</v>
+        <v>0.3758014195722618</v>
       </c>
       <c r="U37" t="n">
-        <v>0.004797464930709776</v>
+        <v>0.004797464930709731</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1960772936504495</v>
+        <v>0.1960772936504476</v>
       </c>
       <c r="H38" t="n">
-        <v>2.008076583597666</v>
+        <v>2.008076583597647</v>
       </c>
       <c r="I38" t="n">
-        <v>7.55926986345896</v>
+        <v>7.55926986345889</v>
       </c>
       <c r="J38" t="n">
-        <v>16.64181520196485</v>
+        <v>16.64181520196469</v>
       </c>
       <c r="K38" t="n">
-        <v>24.94176704218838</v>
+        <v>24.94176704218815</v>
       </c>
       <c r="L38" t="n">
-        <v>30.94246751774333</v>
+        <v>30.94246751774304</v>
       </c>
       <c r="M38" t="n">
-        <v>34.42945708869951</v>
+        <v>34.42945708869919</v>
       </c>
       <c r="N38" t="n">
-        <v>34.98656169928385</v>
+        <v>34.98656169928353</v>
       </c>
       <c r="O38" t="n">
-        <v>33.03681811054719</v>
+        <v>33.03681811054688</v>
       </c>
       <c r="P38" t="n">
-        <v>28.19615992355171</v>
+        <v>28.19615992355145</v>
       </c>
       <c r="Q38" t="n">
-        <v>21.17414184469499</v>
+        <v>21.17414184469479</v>
       </c>
       <c r="R38" t="n">
-        <v>12.31684029727006</v>
+        <v>12.31684029726994</v>
       </c>
       <c r="S38" t="n">
-        <v>4.468111329059622</v>
+        <v>4.46811132905958</v>
       </c>
       <c r="T38" t="n">
-        <v>0.8583283529548429</v>
+        <v>0.8583283529548349</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01568618349203595</v>
+        <v>0.01568618349203581</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1049106010319363</v>
+        <v>0.1049106010319353</v>
       </c>
       <c r="H39" t="n">
-        <v>1.01321554154528</v>
+        <v>1.01321554154527</v>
       </c>
       <c r="I39" t="n">
-        <v>3.612053588160966</v>
+        <v>3.612053588160932</v>
       </c>
       <c r="J39" t="n">
-        <v>9.911751126442722</v>
+        <v>9.911751126442629</v>
       </c>
       <c r="K39" t="n">
-        <v>16.94076139558246</v>
+        <v>16.9407613955823</v>
       </c>
       <c r="L39" t="n">
-        <v>22.7789443161667</v>
+        <v>22.77894431616649</v>
       </c>
       <c r="M39" t="n">
-        <v>26.58195360357439</v>
+        <v>26.58195360357414</v>
       </c>
       <c r="N39" t="n">
-        <v>27.28549881838944</v>
+        <v>27.28549881838918</v>
       </c>
       <c r="O39" t="n">
-        <v>24.96090076394495</v>
+        <v>24.96090076394472</v>
       </c>
       <c r="P39" t="n">
-        <v>20.03332345494931</v>
+        <v>20.03332345494913</v>
       </c>
       <c r="Q39" t="n">
-        <v>13.39174619488366</v>
+        <v>13.39174619488354</v>
       </c>
       <c r="R39" t="n">
-        <v>6.513659948281101</v>
+        <v>6.513659948281041</v>
       </c>
       <c r="S39" t="n">
-        <v>1.948668400746711</v>
+        <v>1.948668400746692</v>
       </c>
       <c r="T39" t="n">
-        <v>0.4228633436331116</v>
+        <v>0.4228633436331076</v>
       </c>
       <c r="U39" t="n">
-        <v>0.006902013225785287</v>
+        <v>0.006902013225785222</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.08795352372967913</v>
+        <v>0.08795352372967831</v>
       </c>
       <c r="H40" t="n">
-        <v>0.7819867837056932</v>
+        <v>0.7819867837056859</v>
       </c>
       <c r="I40" t="n">
-        <v>2.645002331797988</v>
+        <v>2.645002331797963</v>
       </c>
       <c r="J40" t="n">
-        <v>6.218314127688314</v>
+        <v>6.218314127688256</v>
       </c>
       <c r="K40" t="n">
-        <v>10.21860030241181</v>
+        <v>10.21860030241171</v>
       </c>
       <c r="L40" t="n">
-        <v>13.07629024613793</v>
+        <v>13.07629024613781</v>
       </c>
       <c r="M40" t="n">
-        <v>13.78711463337143</v>
+        <v>13.7871146333713</v>
       </c>
       <c r="N40" t="n">
-        <v>13.45928786310627</v>
+        <v>13.45928786310614</v>
       </c>
       <c r="O40" t="n">
-        <v>12.43183079044592</v>
+        <v>12.43183079044581</v>
       </c>
       <c r="P40" t="n">
-        <v>10.63757890636046</v>
+        <v>10.63757890636036</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.36490824612795</v>
+        <v>7.364908246127881</v>
       </c>
       <c r="R40" t="n">
-        <v>3.954710257881753</v>
+        <v>3.954710257881716</v>
       </c>
       <c r="S40" t="n">
-        <v>1.532790045361771</v>
+        <v>1.532790045361757</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3758014195722653</v>
+        <v>0.3758014195722618</v>
       </c>
       <c r="U40" t="n">
-        <v>0.004797464930709776</v>
+        <v>0.004797464930709731</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1960772936504495</v>
+        <v>0.1960772936504476</v>
       </c>
       <c r="H41" t="n">
-        <v>2.008076583597666</v>
+        <v>2.008076583597647</v>
       </c>
       <c r="I41" t="n">
-        <v>7.55926986345896</v>
+        <v>7.55926986345889</v>
       </c>
       <c r="J41" t="n">
-        <v>16.64181520196485</v>
+        <v>16.64181520196469</v>
       </c>
       <c r="K41" t="n">
-        <v>24.94176704218838</v>
+        <v>24.94176704218815</v>
       </c>
       <c r="L41" t="n">
-        <v>30.94246751774333</v>
+        <v>30.94246751774304</v>
       </c>
       <c r="M41" t="n">
-        <v>34.42945708869951</v>
+        <v>34.42945708869919</v>
       </c>
       <c r="N41" t="n">
-        <v>34.98656169928385</v>
+        <v>34.98656169928353</v>
       </c>
       <c r="O41" t="n">
-        <v>33.03681811054719</v>
+        <v>33.03681811054688</v>
       </c>
       <c r="P41" t="n">
-        <v>28.19615992355171</v>
+        <v>28.19615992355145</v>
       </c>
       <c r="Q41" t="n">
-        <v>21.17414184469499</v>
+        <v>21.17414184469479</v>
       </c>
       <c r="R41" t="n">
-        <v>12.31684029727006</v>
+        <v>12.31684029726994</v>
       </c>
       <c r="S41" t="n">
-        <v>4.468111329059622</v>
+        <v>4.46811132905958</v>
       </c>
       <c r="T41" t="n">
-        <v>0.8583283529548429</v>
+        <v>0.8583283529548349</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01568618349203595</v>
+        <v>0.01568618349203581</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1049106010319363</v>
+        <v>0.1049106010319353</v>
       </c>
       <c r="H42" t="n">
-        <v>1.01321554154528</v>
+        <v>1.01321554154527</v>
       </c>
       <c r="I42" t="n">
-        <v>3.612053588160966</v>
+        <v>3.612053588160932</v>
       </c>
       <c r="J42" t="n">
-        <v>9.911751126442722</v>
+        <v>9.911751126442629</v>
       </c>
       <c r="K42" t="n">
-        <v>16.94076139558246</v>
+        <v>16.9407613955823</v>
       </c>
       <c r="L42" t="n">
-        <v>22.7789443161667</v>
+        <v>22.77894431616649</v>
       </c>
       <c r="M42" t="n">
-        <v>26.58195360357439</v>
+        <v>26.58195360357414</v>
       </c>
       <c r="N42" t="n">
-        <v>27.28549881838944</v>
+        <v>27.28549881838918</v>
       </c>
       <c r="O42" t="n">
-        <v>24.96090076394495</v>
+        <v>24.96090076394472</v>
       </c>
       <c r="P42" t="n">
-        <v>20.03332345494931</v>
+        <v>20.03332345494913</v>
       </c>
       <c r="Q42" t="n">
-        <v>13.39174619488366</v>
+        <v>13.39174619488354</v>
       </c>
       <c r="R42" t="n">
-        <v>6.513659948281101</v>
+        <v>6.513659948281041</v>
       </c>
       <c r="S42" t="n">
-        <v>1.948668400746711</v>
+        <v>1.948668400746692</v>
       </c>
       <c r="T42" t="n">
-        <v>0.4228633436331116</v>
+        <v>0.4228633436331076</v>
       </c>
       <c r="U42" t="n">
-        <v>0.006902013225785287</v>
+        <v>0.006902013225785222</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.08795352372967913</v>
+        <v>0.08795352372967831</v>
       </c>
       <c r="H43" t="n">
-        <v>0.7819867837056932</v>
+        <v>0.7819867837056859</v>
       </c>
       <c r="I43" t="n">
-        <v>2.645002331797988</v>
+        <v>2.645002331797963</v>
       </c>
       <c r="J43" t="n">
-        <v>6.218314127688314</v>
+        <v>6.218314127688256</v>
       </c>
       <c r="K43" t="n">
-        <v>10.21860030241181</v>
+        <v>10.21860030241171</v>
       </c>
       <c r="L43" t="n">
-        <v>13.07629024613793</v>
+        <v>13.07629024613781</v>
       </c>
       <c r="M43" t="n">
-        <v>13.78711463337143</v>
+        <v>13.7871146333713</v>
       </c>
       <c r="N43" t="n">
-        <v>13.45928786310627</v>
+        <v>13.45928786310614</v>
       </c>
       <c r="O43" t="n">
-        <v>12.43183079044592</v>
+        <v>12.43183079044581</v>
       </c>
       <c r="P43" t="n">
-        <v>10.63757890636046</v>
+        <v>10.63757890636036</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.36490824612795</v>
+        <v>7.364908246127881</v>
       </c>
       <c r="R43" t="n">
-        <v>3.954710257881753</v>
+        <v>3.954710257881716</v>
       </c>
       <c r="S43" t="n">
-        <v>1.532790045361771</v>
+        <v>1.532790045361757</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3758014195722653</v>
+        <v>0.3758014195722618</v>
       </c>
       <c r="U43" t="n">
-        <v>0.004797464930709776</v>
+        <v>0.004797464930709731</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1960772936504495</v>
+        <v>0.1960772936504482</v>
       </c>
       <c r="H44" t="n">
-        <v>2.008076583597666</v>
+        <v>2.008076583597653</v>
       </c>
       <c r="I44" t="n">
-        <v>7.559269863458961</v>
+        <v>7.559269863458913</v>
       </c>
       <c r="J44" t="n">
-        <v>16.64181520196485</v>
+        <v>16.64181520196475</v>
       </c>
       <c r="K44" t="n">
-        <v>24.94176704218838</v>
+        <v>24.94176704218822</v>
       </c>
       <c r="L44" t="n">
-        <v>30.94246751774334</v>
+        <v>30.94246751774314</v>
       </c>
       <c r="M44" t="n">
-        <v>34.42945708869951</v>
+        <v>34.42945708869929</v>
       </c>
       <c r="N44" t="n">
-        <v>34.98656169928385</v>
+        <v>34.98656169928363</v>
       </c>
       <c r="O44" t="n">
-        <v>33.03681811054719</v>
+        <v>33.03681811054698</v>
       </c>
       <c r="P44" t="n">
-        <v>28.19615992355172</v>
+        <v>28.19615992355154</v>
       </c>
       <c r="Q44" t="n">
-        <v>21.17414184469499</v>
+        <v>21.17414184469486</v>
       </c>
       <c r="R44" t="n">
-        <v>12.31684029727006</v>
+        <v>12.31684029726998</v>
       </c>
       <c r="S44" t="n">
-        <v>4.468111329059622</v>
+        <v>4.468111329059593</v>
       </c>
       <c r="T44" t="n">
-        <v>0.858328352954843</v>
+        <v>0.8583283529548376</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01568618349203596</v>
+        <v>0.01568618349203586</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1049106010319363</v>
+        <v>0.1049106010319357</v>
       </c>
       <c r="H45" t="n">
-        <v>1.01321554154528</v>
+        <v>1.013215541545273</v>
       </c>
       <c r="I45" t="n">
-        <v>3.612053588160966</v>
+        <v>3.612053588160943</v>
       </c>
       <c r="J45" t="n">
-        <v>9.911751126442724</v>
+        <v>9.91175112644266</v>
       </c>
       <c r="K45" t="n">
-        <v>16.94076139558246</v>
+        <v>16.94076139558235</v>
       </c>
       <c r="L45" t="n">
-        <v>22.7789443161667</v>
+        <v>22.77894431616656</v>
       </c>
       <c r="M45" t="n">
-        <v>26.58195360357439</v>
+        <v>26.58195360357422</v>
       </c>
       <c r="N45" t="n">
-        <v>27.28549881838944</v>
+        <v>27.28549881838927</v>
       </c>
       <c r="O45" t="n">
-        <v>24.96090076394496</v>
+        <v>24.9609007639448</v>
       </c>
       <c r="P45" t="n">
-        <v>20.03332345494932</v>
+        <v>20.03332345494919</v>
       </c>
       <c r="Q45" t="n">
-        <v>13.39174619488366</v>
+        <v>13.39174619488358</v>
       </c>
       <c r="R45" t="n">
-        <v>6.513659948281102</v>
+        <v>6.51365994828106</v>
       </c>
       <c r="S45" t="n">
-        <v>1.948668400746711</v>
+        <v>1.948668400746698</v>
       </c>
       <c r="T45" t="n">
-        <v>0.4228633436331116</v>
+        <v>0.4228633436331089</v>
       </c>
       <c r="U45" t="n">
-        <v>0.006902013225785287</v>
+        <v>0.006902013225785243</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.08795352372967914</v>
+        <v>0.08795352372967857</v>
       </c>
       <c r="H46" t="n">
-        <v>0.7819867837056933</v>
+        <v>0.7819867837056883</v>
       </c>
       <c r="I46" t="n">
-        <v>2.645002331797988</v>
+        <v>2.645002331797971</v>
       </c>
       <c r="J46" t="n">
-        <v>6.218314127688314</v>
+        <v>6.218314127688275</v>
       </c>
       <c r="K46" t="n">
-        <v>10.21860030241181</v>
+        <v>10.21860030241175</v>
       </c>
       <c r="L46" t="n">
-        <v>13.07629024613794</v>
+        <v>13.07629024613785</v>
       </c>
       <c r="M46" t="n">
-        <v>13.78711463337143</v>
+        <v>13.78711463337134</v>
       </c>
       <c r="N46" t="n">
-        <v>13.45928786310627</v>
+        <v>13.45928786310619</v>
       </c>
       <c r="O46" t="n">
-        <v>12.43183079044593</v>
+        <v>12.43183079044585</v>
       </c>
       <c r="P46" t="n">
-        <v>10.63757890636046</v>
+        <v>10.63757890636039</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.364908246127951</v>
+        <v>7.364908246127904</v>
       </c>
       <c r="R46" t="n">
-        <v>3.954710257881754</v>
+        <v>3.954710257881728</v>
       </c>
       <c r="S46" t="n">
-        <v>1.532790045361771</v>
+        <v>1.532790045361762</v>
       </c>
       <c r="T46" t="n">
-        <v>0.3758014195722653</v>
+        <v>0.3758014195722629</v>
       </c>
       <c r="U46" t="n">
-        <v>0.004797464930709777</v>
+        <v>0.004797464930709746</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35386,10 +35386,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.439019878190955</v>
+        <v>7.439019878191345</v>
       </c>
       <c r="D11" t="n">
-        <v>7.439019878190955</v>
+        <v>7.439019878191345</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -35404,22 +35404,22 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8612938094965443</v>
+        <v>5.9122760365766</v>
       </c>
       <c r="J11" t="n">
-        <v>7.439019878190955</v>
+        <v>7.439019878191345</v>
       </c>
       <c r="K11" t="n">
-        <v>7.414197394664939</v>
+        <v>0.05444351219244936</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2352663949513385</v>
+        <v>0.235266394951168</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2.308771655393457</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35428,25 +35428,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>0.04583409928454785</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>2.108779649875423</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7.439019878191345</v>
       </c>
       <c r="T11" t="n">
-        <v>7.439019878190955</v>
+        <v>7.439019878191345</v>
       </c>
       <c r="U11" t="n">
-        <v>7.439019878190955</v>
+        <v>7.439019878191345</v>
       </c>
       <c r="V11" t="n">
-        <v>7.439019878190955</v>
+        <v>4.983839669306747</v>
       </c>
       <c r="W11" t="n">
-        <v>7.138453418466042</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -35623,10 +35623,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>8.012421037436187</v>
+        <v>8.012421037436354</v>
       </c>
       <c r="D14" t="n">
-        <v>8.012421037436187</v>
+        <v>8.012421037436354</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -35641,22 +35641,22 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>6.059112757287835</v>
+        <v>5.385052271662554</v>
       </c>
       <c r="J14" t="n">
-        <v>5.017726099957126</v>
+        <v>8.012421037436354</v>
       </c>
       <c r="K14" t="n">
-        <v>7.561034115376287</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3821031156626873</v>
+        <v>0.3821031156625736</v>
       </c>
       <c r="N14" t="n">
-        <v>2.455608376104976</v>
+        <v>2.455608376104863</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -35665,25 +35665,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.1926708199958966</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>2.255616370586717</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>8.012421037436187</v>
+        <v>8.012421037436354</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>8.012421037436187</v>
+        <v>7.688686854105597</v>
       </c>
       <c r="V14" t="n">
-        <v>8.012421037436187</v>
+        <v>8.012421037436354</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>8.012421037436354</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -35860,10 +35860,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>16.18083491622565</v>
+        <v>12.75449809618834</v>
       </c>
       <c r="D17" t="n">
-        <v>12.75449809618812</v>
+        <v>16.18083491622559</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -35881,43 +35881,43 @@
         <v>7.782636285400031</v>
       </c>
       <c r="J17" t="n">
-        <v>16.18083491622565</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>9.284557643488291</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>2.105626643774883</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.116023099699817</v>
+        <v>1.116023099699532</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.916194348108093</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>3.979139898698913</v>
+        <v>3.979139898698861</v>
       </c>
       <c r="S17" t="n">
-        <v>16.18083491622565</v>
+        <v>16.18083491622559</v>
       </c>
       <c r="T17" t="n">
-        <v>16.18083491622565</v>
+        <v>9.442472301537725</v>
       </c>
       <c r="U17" t="n">
-        <v>14.70520895314209</v>
+        <v>16.18083491622559</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>16.18083491622559</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36097,10 +36097,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>18.57974169281238</v>
+        <v>10.00900151341438</v>
       </c>
       <c r="D20" t="n">
-        <v>18.57974169281238</v>
+        <v>18.57974169281315</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -36115,13 +36115,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>8.095457463805815</v>
+        <v>0.4794879066909988</v>
       </c>
       <c r="J20" t="n">
-        <v>18.57974169281238</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>9.597378821894267</v>
+        <v>9.597378821894395</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36133,34 +36133,34 @@
         <v>4.491953082622956</v>
       </c>
       <c r="O20" t="n">
-        <v>1.428844278105601</v>
+        <v>1.428844278105657</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.229015526513876</v>
+        <v>2.229015526514022</v>
       </c>
       <c r="R20" t="n">
-        <v>4.291961077104697</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>18.57974169281315</v>
       </c>
       <c r="T20" t="n">
-        <v>18.57974169281238</v>
+        <v>18.57974169281315</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>18.57974169281315</v>
       </c>
       <c r="W20" t="n">
-        <v>9.891428122544994</v>
+        <v>11.79035724335102</v>
       </c>
       <c r="X20" t="n">
-        <v>0.8329803668386262</v>
+        <v>0.8329803668389673</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -36334,10 +36334,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>21.3404836141022</v>
+        <v>21.34048361410214</v>
       </c>
       <c r="D23" t="n">
-        <v>31.20133358976494</v>
+        <v>31.201333589765</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -36352,25 +36352,25 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>9.602115422739132</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>31.20133358976494</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>11.10403678082758</v>
+        <v>9.429419315642312</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>3.925105781113984</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2.935502237038925</v>
+        <v>2.935502237038577</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36379,25 +36379,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>5.798619036038014</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>31.201333589765</v>
       </c>
       <c r="T23" t="n">
-        <v>31.20133358976494</v>
+        <v>31.201333589765</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2.156697171806271</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>10.29189384036385</v>
+        <v>26.79601604785967</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>2.339638325771887</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -36571,10 +36571,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>21.34048361410231</v>
+        <v>21.34048361410225</v>
       </c>
       <c r="D26" t="n">
-        <v>1.351677898692685</v>
+        <v>31.20133358976489</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>9.602115422739246</v>
+        <v>9.602115422739132</v>
       </c>
       <c r="J26" t="n">
-        <v>31.20133358976494</v>
+        <v>9.322007768415478</v>
       </c>
       <c r="K26" t="n">
-        <v>11.1040367808277</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>3.9251057811137</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>5.998611041555989</v>
       </c>
       <c r="O26" t="n">
-        <v>2.935502237039039</v>
+        <v>2.935502237038691</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.735673485447307</v>
+        <v>3.73567348544708</v>
       </c>
       <c r="R26" t="n">
-        <v>5.798619036038128</v>
+        <v>5.798619036037955</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36625,16 +36625,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>31.20133358976494</v>
+        <v>31.20133358976489</v>
       </c>
       <c r="V26" t="n">
-        <v>31.20133358976494</v>
+        <v>31.20133358976489</v>
       </c>
       <c r="W26" t="n">
-        <v>6.790009911561242</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>2.339638325772057</v>
+        <v>2.339638325772</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -36808,10 +36808,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>21.34048361410208</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>31.20133358976506</v>
+        <v>22.69216151279556</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -36826,22 +36826,22 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>9.602115422739018</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>31.20133358976506</v>
+        <v>8.539617510206654</v>
       </c>
       <c r="K29" t="n">
-        <v>11.10403678082747</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>3.925105781113643</v>
       </c>
       <c r="N29" t="n">
-        <v>5.998611041556146</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -36850,28 +36850,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>3.735673485446998</v>
       </c>
       <c r="R29" t="n">
-        <v>5.798619036037906</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>31.20133358976489</v>
       </c>
       <c r="T29" t="n">
-        <v>31.20133358976506</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>11.15389081695893</v>
+        <v>31.20133358976489</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>31.20133358976489</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>23.76556009688522</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>2.339638325771944</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -37048,7 +37048,7 @@
         <v>22.47774679100468</v>
       </c>
       <c r="D32" t="n">
-        <v>21.32613682544837</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -37063,25 +37063,25 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>10.73937859964161</v>
+        <v>10.73937859964155</v>
       </c>
       <c r="J32" t="n">
-        <v>49.78107528257932</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>12.24129995773009</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>5.062368958016464</v>
+        <v>5.062368958016123</v>
       </c>
       <c r="N32" t="n">
-        <v>7.135874218458753</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>4.072765413941404</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37090,25 +37090,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>6.935882212940493</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>49.78107528257932</v>
+        <v>33.36549448054944</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>49.78107528257842</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>36.71735870311073</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>27.9332792247622</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>3.476901502674423</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -37282,10 +37282,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>22.16492561259889</v>
+        <v>22.16492561259861</v>
       </c>
       <c r="D35" t="n">
-        <v>37.99195641243193</v>
+        <v>24.92554996909169</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -37300,25 +37300,25 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>10.42655742123584</v>
+        <v>7.698435999650163</v>
       </c>
       <c r="J35" t="n">
-        <v>41.03645292051806</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>11.9284787793243</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>4.74954777961068</v>
+        <v>4.749547779610076</v>
       </c>
       <c r="N35" t="n">
-        <v>6.823053040052955</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>3.75994423553562</v>
+        <v>3.759944235535023</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37327,10 +37327,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>6.623061034534709</v>
+        <v>6.623061034534309</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>42.34205540438708</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37339,13 +37339,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>36.40453752470466</v>
       </c>
       <c r="W35" t="n">
-        <v>27.62045804635642</v>
+        <v>27.62045804635613</v>
       </c>
       <c r="X35" t="n">
-        <v>3.164080324268639</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -37519,10 +37519,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>21.98730771201349</v>
+        <v>21.98730771201372</v>
       </c>
       <c r="D38" t="n">
-        <v>37.37953956316329</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -37537,49 +37537,49 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>10.24893952065042</v>
+        <v>10.24893952065059</v>
       </c>
       <c r="J38" t="n">
-        <v>41.76865424514313</v>
+        <v>41.76865424514207</v>
       </c>
       <c r="K38" t="n">
-        <v>11.75086087873888</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.571929879025276</v>
+        <v>4.571929879025163</v>
       </c>
       <c r="N38" t="n">
-        <v>6.645435139467565</v>
+        <v>3.26369357180846</v>
       </c>
       <c r="O38" t="n">
-        <v>3.58232633495021</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>4.382497583358486</v>
+        <v>4.382497583358543</v>
       </c>
       <c r="R38" t="n">
-        <v>6.445443133949306</v>
+        <v>6.445443133949418</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>41.76865424514207</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>41.76865424514207</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>27.44284014577102</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -37756,10 +37756,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>21.48732033481332</v>
+        <v>21.48732033481343</v>
       </c>
       <c r="D41" t="n">
-        <v>33.60024036635172</v>
+        <v>33.60024036635254</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -37774,52 +37774,52 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>9.748952143450254</v>
+        <v>9.74895214345031</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>20.23622407633986</v>
       </c>
       <c r="K41" t="n">
-        <v>11.25087350153873</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.071942501824878</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>3.082338957749869</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>3.882510206158315</v>
+        <v>3.882510206158258</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>5.945455756749134</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>33.60024036635172</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>19.59861274463995</v>
+        <v>33.60024036635254</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>26.94285276857084</v>
+        <v>26.94285276857096</v>
       </c>
       <c r="X41" t="n">
-        <v>2.486475046483065</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -37993,7 +37993,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>6.097493796471383</v>
+        <v>21.34048361410214</v>
       </c>
       <c r="D44" t="n">
         <v>31.201333589765</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>31.201333589765</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>11.10403678082753</v>
+        <v>8.539617510206654</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>3.925105781113928</v>
+        <v>3.9251057811137</v>
       </c>
       <c r="N44" t="n">
-        <v>5.998611041556217</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>2.935502237038861</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>3.735673485447141</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.396533758939029</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38047,13 +38047,13 @@
         <v>31.201333589765</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
         <v>31.201333589765</v>
       </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>26.79601604785967</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
